--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.717755025776335</v>
+        <v>6.717755025776451</v>
       </c>
       <c r="E2">
-        <v>15.83295745592233</v>
+        <v>15.83295745592232</v>
       </c>
       <c r="F2">
-        <v>54.50065054061235</v>
+        <v>54.50065054061221</v>
       </c>
       <c r="G2">
-        <v>43.61940403945566</v>
+        <v>43.61940403945557</v>
       </c>
       <c r="H2">
-        <v>27.72231363687212</v>
+        <v>27.72231363687207</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.09885649357253</v>
+        <v>46.09885649357249</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.7411427801496</v>
+        <v>12.74114278014959</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.104897846387745</v>
+        <v>6.104897846387854</v>
       </c>
       <c r="E3">
         <v>15.04608400120194</v>
       </c>
       <c r="F3">
-        <v>49.85281745457159</v>
+        <v>49.85281745457149</v>
       </c>
       <c r="G3">
-        <v>39.86163409309241</v>
+        <v>39.86163409309235</v>
       </c>
       <c r="H3">
-        <v>26.21044817100276</v>
+        <v>26.21044817100284</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>42.76428883952881</v>
+        <v>42.76428883952877</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15246934267811</v>
+        <v>12.15246934267804</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.727111091234877</v>
+        <v>5.727111091234825</v>
       </c>
       <c r="E4">
-        <v>14.53785700041444</v>
+        <v>14.53785700041441</v>
       </c>
       <c r="F4">
-        <v>46.96433786307308</v>
+        <v>46.964337863073</v>
       </c>
       <c r="G4">
-        <v>37.52543261686426</v>
+        <v>37.52543261686419</v>
       </c>
       <c r="H4">
         <v>25.26641959908207</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>40.63466321467067</v>
+        <v>40.63466321467064</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.90532658346533</v>
+        <v>11.90532658346526</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,16 +535,16 @@
         <v>5.572202925328785</v>
       </c>
       <c r="E5">
-        <v>14.3248037081817</v>
+        <v>14.32480370818166</v>
       </c>
       <c r="F5">
-        <v>45.77530481990615</v>
+        <v>45.77530481990601</v>
       </c>
       <c r="G5">
-        <v>36.56342131421257</v>
+        <v>36.56342131421246</v>
       </c>
       <c r="H5">
-        <v>24.87787528732669</v>
+        <v>24.87787528732664</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>39.74480064007194</v>
+        <v>39.74480064007182</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.546407824519197</v>
+        <v>5.54640782451917</v>
       </c>
       <c r="E6">
-        <v>14.28907819133023</v>
+        <v>14.28907819133018</v>
       </c>
       <c r="F6">
-        <v>45.57706461627275</v>
+        <v>45.57706461627269</v>
       </c>
       <c r="G6">
-        <v>36.40300854536851</v>
+        <v>36.40300854536843</v>
       </c>
       <c r="H6">
-        <v>24.8131315447329</v>
+        <v>24.81313154473287</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>39.59567467223759</v>
+        <v>39.59567467223755</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14916579085526</v>
+        <v>12.14916579085527</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.725026508123121</v>
+        <v>5.725026508123049</v>
       </c>
       <c r="E7">
-        <v>14.53500727478074</v>
+        <v>14.53500727478064</v>
       </c>
       <c r="F7">
-        <v>46.94835426769988</v>
+        <v>46.94835426769984</v>
       </c>
       <c r="G7">
-        <v>37.51250220056621</v>
+        <v>37.51250220056617</v>
       </c>
       <c r="H7">
-        <v>25.26119487238196</v>
+        <v>25.26119487238195</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>40.6227529928892</v>
+        <v>40.62275299288917</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34483292056401</v>
+        <v>13.34483292056407</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.506361128443128</v>
+        <v>6.506361128443213</v>
       </c>
       <c r="E8">
-        <v>15.56706123215196</v>
+        <v>15.56706123215197</v>
       </c>
       <c r="F8">
-        <v>52.90307213061822</v>
+        <v>52.9030721306179</v>
       </c>
       <c r="G8">
-        <v>42.32788087972478</v>
+        <v>42.32788087972455</v>
       </c>
       <c r="H8">
-        <v>27.20431053227815</v>
+        <v>27.20431053227833</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>44.96524970133681</v>
+        <v>44.96524970133679</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.47115804432547</v>
+        <v>15.47115804432544</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.061556745614624</v>
+        <v>8.061556745614643</v>
       </c>
       <c r="E9">
-        <v>17.37619900602715</v>
+        <v>17.37619900602725</v>
       </c>
       <c r="F9">
-        <v>64.50585681923486</v>
+        <v>64.50585681923518</v>
       </c>
       <c r="G9">
-        <v>51.70838895994157</v>
+        <v>51.70838895994182</v>
       </c>
       <c r="H9">
-        <v>30.89349095565825</v>
+        <v>30.89349095565817</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>52.90920480404652</v>
+        <v>52.9092048040466</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91336672309605</v>
+        <v>16.91336672309606</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.289254982399768</v>
+        <v>9.289254982399605</v>
       </c>
       <c r="E10">
         <v>18.62042525464374</v>
       </c>
       <c r="F10">
-        <v>73.40366765795041</v>
+        <v>73.40366765795039</v>
       </c>
       <c r="G10">
-        <v>58.90765894942213</v>
+        <v>58.90765894942204</v>
       </c>
       <c r="H10">
-        <v>33.55099091383947</v>
+        <v>33.55099091383942</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>58.55944154592814</v>
+        <v>58.55944154592812</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.5479329366024</v>
+        <v>17.54793293660235</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.894075619615629</v>
+        <v>9.894075619615606</v>
       </c>
       <c r="E11">
-        <v>19.18328717385315</v>
+        <v>19.18328717385309</v>
       </c>
       <c r="F11">
-        <v>77.69789093406688</v>
+        <v>77.6978909340672</v>
       </c>
       <c r="G11">
-        <v>62.38541275824312</v>
+        <v>62.38541275824338</v>
       </c>
       <c r="H11">
-        <v>34.75955136991254</v>
+        <v>34.75955136991247</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.15211569685146</v>
+        <v>61.1521156968515</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78572730973866</v>
+        <v>17.78572730973868</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.13388199573328</v>
+        <v>10.1338819957333</v>
       </c>
       <c r="E12">
-        <v>19.38769847090858</v>
+        <v>19.38769847090863</v>
       </c>
       <c r="F12">
-        <v>79.38386331176106</v>
+        <v>79.38386331176082</v>
       </c>
       <c r="G12">
-        <v>63.7515396225044</v>
+        <v>63.7515396225042</v>
       </c>
       <c r="H12">
-        <v>35.22113049299479</v>
+        <v>35.22113049299485</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62.14627421220905</v>
+        <v>62.14627421220904</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73461272940153</v>
+        <v>17.73461272940155</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.08166270195929</v>
+        <v>10.08166270195941</v>
       </c>
       <c r="E13">
-        <v>19.34408553350792</v>
+        <v>19.34408553350791</v>
       </c>
       <c r="F13">
-        <v>79.0175438752356</v>
+        <v>79.01754387523569</v>
       </c>
       <c r="G13">
-        <v>63.45467826117223</v>
+        <v>63.45467826117236</v>
       </c>
       <c r="H13">
-        <v>35.11981467906749</v>
+        <v>35.11981467906744</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>61.931406980574</v>
+        <v>61.93140698057405</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.5675421560979</v>
+        <v>17.56754215609792</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.913556115652153</v>
+        <v>9.91355611565227</v>
       </c>
       <c r="E14">
-        <v>19.20028701027665</v>
+        <v>19.20028701027664</v>
       </c>
       <c r="F14">
-        <v>77.83520458347014</v>
+        <v>77.83520458347027</v>
       </c>
       <c r="G14">
-        <v>62.49666088400535</v>
+        <v>62.49666088400549</v>
       </c>
       <c r="H14">
-        <v>34.79729151654229</v>
+        <v>34.7972915165423</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>61.23358555253294</v>
+        <v>61.233585552533</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.46490306691572</v>
+        <v>17.46490306691573</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.812152930214314</v>
+        <v>9.812152930214312</v>
       </c>
       <c r="E15">
-        <v>19.11102986371156</v>
+        <v>19.11102986371157</v>
       </c>
       <c r="F15">
-        <v>77.1197513867197</v>
+        <v>77.11975138671991</v>
       </c>
       <c r="G15">
-        <v>61.91704832020359</v>
+        <v>61.91704832020376</v>
       </c>
       <c r="H15">
-        <v>34.60001594269186</v>
+        <v>34.60001594269188</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>60.80812409137543</v>
+        <v>60.8081240913755</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.8715082200461</v>
+        <v>16.87150822004613</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.250961706778881</v>
+        <v>9.250961706778869</v>
       </c>
       <c r="E16">
         <v>18.58248478534139</v>
       </c>
       <c r="F16">
-        <v>73.12977779573768</v>
+        <v>73.12977779573771</v>
       </c>
       <c r="G16">
         <v>58.68592623302128</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50231658846465</v>
+        <v>16.50231658846463</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.920832841382262</v>
+        <v>8.920832841382204</v>
       </c>
       <c r="E17">
-        <v>18.24389884788267</v>
+        <v>18.2438988478826</v>
       </c>
       <c r="F17">
-        <v>70.75873344179851</v>
+        <v>70.7587334417986</v>
       </c>
       <c r="G17">
-        <v>56.76677579704017</v>
+        <v>56.76677579704018</v>
       </c>
       <c r="H17">
-        <v>32.78105076532653</v>
+        <v>32.78105076532641</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>56.91918987514397</v>
+        <v>56.91918987514396</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28789760852537</v>
+        <v>16.2878976085254</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.734979996008128</v>
+        <v>8.7349799960082</v>
       </c>
       <c r="E18">
-        <v>18.04904486463369</v>
+        <v>18.04904486463374</v>
       </c>
       <c r="F18">
-        <v>69.41620627943961</v>
+        <v>69.41620627943981</v>
       </c>
       <c r="G18">
-        <v>55.68039792511178</v>
+        <v>55.68039792511197</v>
       </c>
       <c r="H18">
-        <v>32.38339192611779</v>
+        <v>32.38339192611786</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>56.07393678693109</v>
+        <v>56.07393678693121</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21492952085178</v>
+        <v>16.21492952085175</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.672653856006267</v>
+        <v>8.672653856006216</v>
       </c>
       <c r="E19">
-        <v>17.98966347428492</v>
+        <v>17.98966347428488</v>
       </c>
       <c r="F19">
-        <v>68.96475310223609</v>
+        <v>68.96475310223633</v>
       </c>
       <c r="G19">
-        <v>55.31512256706466</v>
+        <v>55.31512256706485</v>
       </c>
       <c r="H19">
-        <v>32.24868431991926</v>
+        <v>32.24868431991912</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.54182841524966</v>
+        <v>16.54182841524963</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.955535905151477</v>
+        <v>8.95553590515148</v>
       </c>
       <c r="E20">
-        <v>18.2804635688113</v>
+        <v>18.28046356881127</v>
       </c>
       <c r="F20">
-        <v>71.00880207053855</v>
+        <v>71.00880207053876</v>
       </c>
       <c r="G20">
-        <v>56.96915375810259</v>
+        <v>56.96915375810271</v>
       </c>
       <c r="H20">
-        <v>32.85462511860048</v>
+        <v>32.85462511860033</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.61667659764366</v>
+        <v>17.61667659764365</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.962595323499347</v>
+        <v>9.962595323499237</v>
       </c>
       <c r="E21">
-        <v>19.24277195490719</v>
+        <v>19.24277195490716</v>
       </c>
       <c r="F21">
-        <v>78.1805935559192</v>
+        <v>78.18059355591917</v>
       </c>
       <c r="G21">
-        <v>62.7764987035797</v>
+        <v>62.77649870357968</v>
       </c>
       <c r="H21">
-        <v>34.89196171005823</v>
+        <v>34.89196171005818</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>61.43811632924362</v>
+        <v>61.43811632924358</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30510009100575</v>
+        <v>18.30510009100576</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.68778680960775</v>
+        <v>10.68778680960774</v>
       </c>
       <c r="E22">
-        <v>19.81980290740005</v>
+        <v>19.81980290739999</v>
       </c>
       <c r="F22">
-        <v>83.24150158039394</v>
+        <v>83.24150158039416</v>
       </c>
       <c r="G22">
-        <v>66.87902410077815</v>
+        <v>66.87902410077831</v>
       </c>
       <c r="H22">
-        <v>36.35061595868978</v>
+        <v>36.35061595868966</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.3706246121376</v>
+        <v>64.37062461213765</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.93867798973262</v>
+        <v>17.93867798973267</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.29246050012598</v>
+        <v>10.29246050012595</v>
       </c>
       <c r="E23">
-        <v>19.51708866869208</v>
+        <v>19.51708866869212</v>
       </c>
       <c r="F23">
-        <v>80.49351595435522</v>
+        <v>80.49351595435527</v>
       </c>
       <c r="G23">
-        <v>64.65091695706168</v>
+        <v>64.65091695706171</v>
       </c>
       <c r="H23">
-        <v>35.55215820185274</v>
+        <v>35.55215820185283</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>62.79329206379989</v>
+        <v>62.79329206379993</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.5239719043378</v>
+        <v>16.52397190433778</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.939834639553657</v>
+        <v>8.939834639553741</v>
       </c>
       <c r="E24">
-        <v>18.26394840067785</v>
+        <v>18.26394840067782</v>
       </c>
       <c r="F24">
-        <v>70.89568342714919</v>
+        <v>70.89568342714931</v>
       </c>
       <c r="G24">
-        <v>56.87760714901402</v>
+        <v>56.87760714901414</v>
       </c>
       <c r="H24">
-        <v>32.82136335782703</v>
+        <v>32.82136335782693</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.0049325637471</v>
+        <v>57.00493256374709</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.91817691397848</v>
+        <v>14.91817691397851</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.632541624813581</v>
+        <v>7.632541624813677</v>
       </c>
       <c r="E25">
-        <v>16.91200959427902</v>
+        <v>16.91200959427908</v>
       </c>
       <c r="F25">
-        <v>61.34089079453135</v>
+        <v>61.34089079453132</v>
       </c>
       <c r="G25">
-        <v>49.14919075669547</v>
+        <v>49.14919075669545</v>
       </c>
       <c r="H25">
-        <v>29.90719870121668</v>
+        <v>29.90719870121679</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>50.80794478898933</v>
+        <v>50.80794478898937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.717755025776451</v>
+        <v>6.717755025776335</v>
       </c>
       <c r="E2">
-        <v>15.83295745592232</v>
+        <v>15.83295745592233</v>
       </c>
       <c r="F2">
-        <v>54.50065054061221</v>
+        <v>54.50065054061235</v>
       </c>
       <c r="G2">
-        <v>43.61940403945557</v>
+        <v>43.61940403945566</v>
       </c>
       <c r="H2">
-        <v>27.72231363687207</v>
+        <v>27.72231363687212</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.09885649357249</v>
+        <v>46.09885649357253</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.74114278014959</v>
+        <v>12.7411427801496</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.104897846387854</v>
+        <v>6.104897846387745</v>
       </c>
       <c r="E3">
         <v>15.04608400120194</v>
       </c>
       <c r="F3">
-        <v>49.85281745457149</v>
+        <v>49.85281745457159</v>
       </c>
       <c r="G3">
-        <v>39.86163409309235</v>
+        <v>39.86163409309241</v>
       </c>
       <c r="H3">
-        <v>26.21044817100284</v>
+        <v>26.21044817100276</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>42.76428883952877</v>
+        <v>42.76428883952881</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15246934267804</v>
+        <v>12.15246934267811</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.727111091234825</v>
+        <v>5.727111091234877</v>
       </c>
       <c r="E4">
-        <v>14.53785700041441</v>
+        <v>14.53785700041444</v>
       </c>
       <c r="F4">
-        <v>46.964337863073</v>
+        <v>46.96433786307308</v>
       </c>
       <c r="G4">
-        <v>37.52543261686419</v>
+        <v>37.52543261686426</v>
       </c>
       <c r="H4">
         <v>25.26641959908207</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>40.63466321467064</v>
+        <v>40.63466321467067</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.90532658346526</v>
+        <v>11.90532658346533</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -535,16 +535,16 @@
         <v>5.572202925328785</v>
       </c>
       <c r="E5">
-        <v>14.32480370818166</v>
+        <v>14.3248037081817</v>
       </c>
       <c r="F5">
-        <v>45.77530481990601</v>
+        <v>45.77530481990615</v>
       </c>
       <c r="G5">
-        <v>36.56342131421246</v>
+        <v>36.56342131421257</v>
       </c>
       <c r="H5">
-        <v>24.87787528732664</v>
+        <v>24.87787528732669</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>39.74480064007182</v>
+        <v>39.74480064007194</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -570,19 +570,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.54640782451917</v>
+        <v>5.546407824519197</v>
       </c>
       <c r="E6">
-        <v>14.28907819133018</v>
+        <v>14.28907819133023</v>
       </c>
       <c r="F6">
-        <v>45.57706461627269</v>
+        <v>45.57706461627275</v>
       </c>
       <c r="G6">
-        <v>36.40300854536843</v>
+        <v>36.40300854536851</v>
       </c>
       <c r="H6">
-        <v>24.81313154473287</v>
+        <v>24.8131315447329</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>39.59567467223755</v>
+        <v>39.59567467223759</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14916579085527</v>
+        <v>12.14916579085526</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.725026508123049</v>
+        <v>5.725026508123121</v>
       </c>
       <c r="E7">
-        <v>14.53500727478064</v>
+        <v>14.53500727478074</v>
       </c>
       <c r="F7">
-        <v>46.94835426769984</v>
+        <v>46.94835426769988</v>
       </c>
       <c r="G7">
-        <v>37.51250220056617</v>
+        <v>37.51250220056621</v>
       </c>
       <c r="H7">
-        <v>25.26119487238195</v>
+        <v>25.26119487238196</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>40.62275299288917</v>
+        <v>40.6227529928892</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34483292056407</v>
+        <v>13.34483292056401</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.506361128443213</v>
+        <v>6.506361128443128</v>
       </c>
       <c r="E8">
-        <v>15.56706123215197</v>
+        <v>15.56706123215196</v>
       </c>
       <c r="F8">
-        <v>52.9030721306179</v>
+        <v>52.90307213061822</v>
       </c>
       <c r="G8">
-        <v>42.32788087972455</v>
+        <v>42.32788087972478</v>
       </c>
       <c r="H8">
-        <v>27.20431053227833</v>
+        <v>27.20431053227815</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>44.96524970133679</v>
+        <v>44.96524970133681</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.47115804432544</v>
+        <v>15.47115804432547</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.061556745614643</v>
+        <v>8.061556745614624</v>
       </c>
       <c r="E9">
-        <v>17.37619900602725</v>
+        <v>17.37619900602715</v>
       </c>
       <c r="F9">
-        <v>64.50585681923518</v>
+        <v>64.50585681923486</v>
       </c>
       <c r="G9">
-        <v>51.70838895994182</v>
+        <v>51.70838895994157</v>
       </c>
       <c r="H9">
-        <v>30.89349095565817</v>
+        <v>30.89349095565825</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>52.9092048040466</v>
+        <v>52.90920480404652</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91336672309606</v>
+        <v>16.91336672309605</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.289254982399605</v>
+        <v>9.289254982399768</v>
       </c>
       <c r="E10">
         <v>18.62042525464374</v>
       </c>
       <c r="F10">
-        <v>73.40366765795039</v>
+        <v>73.40366765795041</v>
       </c>
       <c r="G10">
-        <v>58.90765894942204</v>
+        <v>58.90765894942213</v>
       </c>
       <c r="H10">
-        <v>33.55099091383942</v>
+        <v>33.55099091383947</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>58.55944154592812</v>
+        <v>58.55944154592814</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.54793293660235</v>
+        <v>17.5479329366024</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.894075619615606</v>
+        <v>9.894075619615629</v>
       </c>
       <c r="E11">
-        <v>19.18328717385309</v>
+        <v>19.18328717385315</v>
       </c>
       <c r="F11">
-        <v>77.6978909340672</v>
+        <v>77.69789093406688</v>
       </c>
       <c r="G11">
-        <v>62.38541275824338</v>
+        <v>62.38541275824312</v>
       </c>
       <c r="H11">
-        <v>34.75955136991247</v>
+        <v>34.75955136991254</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.1521156968515</v>
+        <v>61.15211569685146</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78572730973868</v>
+        <v>17.78572730973866</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.1338819957333</v>
+        <v>10.13388199573328</v>
       </c>
       <c r="E12">
-        <v>19.38769847090863</v>
+        <v>19.38769847090858</v>
       </c>
       <c r="F12">
-        <v>79.38386331176082</v>
+        <v>79.38386331176106</v>
       </c>
       <c r="G12">
-        <v>63.7515396225042</v>
+        <v>63.7515396225044</v>
       </c>
       <c r="H12">
-        <v>35.22113049299485</v>
+        <v>35.22113049299479</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62.14627421220904</v>
+        <v>62.14627421220905</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73461272940155</v>
+        <v>17.73461272940153</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.08166270195941</v>
+        <v>10.08166270195929</v>
       </c>
       <c r="E13">
-        <v>19.34408553350791</v>
+        <v>19.34408553350792</v>
       </c>
       <c r="F13">
-        <v>79.01754387523569</v>
+        <v>79.0175438752356</v>
       </c>
       <c r="G13">
-        <v>63.45467826117236</v>
+        <v>63.45467826117223</v>
       </c>
       <c r="H13">
-        <v>35.11981467906744</v>
+        <v>35.11981467906749</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>61.93140698057405</v>
+        <v>61.931406980574</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.56754215609792</v>
+        <v>17.5675421560979</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.91355611565227</v>
+        <v>9.913556115652153</v>
       </c>
       <c r="E14">
-        <v>19.20028701027664</v>
+        <v>19.20028701027665</v>
       </c>
       <c r="F14">
-        <v>77.83520458347027</v>
+        <v>77.83520458347014</v>
       </c>
       <c r="G14">
-        <v>62.49666088400549</v>
+        <v>62.49666088400535</v>
       </c>
       <c r="H14">
-        <v>34.7972915165423</v>
+        <v>34.79729151654229</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>61.233585552533</v>
+        <v>61.23358555253294</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.46490306691573</v>
+        <v>17.46490306691572</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.812152930214312</v>
+        <v>9.812152930214314</v>
       </c>
       <c r="E15">
-        <v>19.11102986371157</v>
+        <v>19.11102986371156</v>
       </c>
       <c r="F15">
-        <v>77.11975138671991</v>
+        <v>77.1197513867197</v>
       </c>
       <c r="G15">
-        <v>61.91704832020376</v>
+        <v>61.91704832020359</v>
       </c>
       <c r="H15">
-        <v>34.60001594269188</v>
+        <v>34.60001594269186</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>60.8081240913755</v>
+        <v>60.80812409137543</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87150822004613</v>
+        <v>16.8715082200461</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.250961706778869</v>
+        <v>9.250961706778881</v>
       </c>
       <c r="E16">
         <v>18.58248478534139</v>
       </c>
       <c r="F16">
-        <v>73.12977779573771</v>
+        <v>73.12977779573768</v>
       </c>
       <c r="G16">
         <v>58.68592623302128</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50231658846463</v>
+        <v>16.50231658846465</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.920832841382204</v>
+        <v>8.920832841382262</v>
       </c>
       <c r="E17">
-        <v>18.2438988478826</v>
+        <v>18.24389884788267</v>
       </c>
       <c r="F17">
-        <v>70.7587334417986</v>
+        <v>70.75873344179851</v>
       </c>
       <c r="G17">
-        <v>56.76677579704018</v>
+        <v>56.76677579704017</v>
       </c>
       <c r="H17">
-        <v>32.78105076532641</v>
+        <v>32.78105076532653</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>56.91918987514396</v>
+        <v>56.91918987514397</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.2878976085254</v>
+        <v>16.28789760852537</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.7349799960082</v>
+        <v>8.734979996008128</v>
       </c>
       <c r="E18">
-        <v>18.04904486463374</v>
+        <v>18.04904486463369</v>
       </c>
       <c r="F18">
-        <v>69.41620627943981</v>
+        <v>69.41620627943961</v>
       </c>
       <c r="G18">
-        <v>55.68039792511197</v>
+        <v>55.68039792511178</v>
       </c>
       <c r="H18">
-        <v>32.38339192611786</v>
+        <v>32.38339192611779</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>56.07393678693121</v>
+        <v>56.07393678693109</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21492952085175</v>
+        <v>16.21492952085178</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.672653856006216</v>
+        <v>8.672653856006267</v>
       </c>
       <c r="E19">
-        <v>17.98966347428488</v>
+        <v>17.98966347428492</v>
       </c>
       <c r="F19">
-        <v>68.96475310223633</v>
+        <v>68.96475310223609</v>
       </c>
       <c r="G19">
-        <v>55.31512256706485</v>
+        <v>55.31512256706466</v>
       </c>
       <c r="H19">
-        <v>32.24868431991912</v>
+        <v>32.24868431991926</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.54182841524963</v>
+        <v>16.54182841524966</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.95553590515148</v>
+        <v>8.955535905151477</v>
       </c>
       <c r="E20">
-        <v>18.28046356881127</v>
+        <v>18.2804635688113</v>
       </c>
       <c r="F20">
-        <v>71.00880207053876</v>
+        <v>71.00880207053855</v>
       </c>
       <c r="G20">
-        <v>56.96915375810271</v>
+        <v>56.96915375810259</v>
       </c>
       <c r="H20">
-        <v>32.85462511860033</v>
+        <v>32.85462511860048</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.61667659764365</v>
+        <v>17.61667659764366</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.962595323499237</v>
+        <v>9.962595323499347</v>
       </c>
       <c r="E21">
-        <v>19.24277195490716</v>
+        <v>19.24277195490719</v>
       </c>
       <c r="F21">
-        <v>78.18059355591917</v>
+        <v>78.1805935559192</v>
       </c>
       <c r="G21">
-        <v>62.77649870357968</v>
+        <v>62.7764987035797</v>
       </c>
       <c r="H21">
-        <v>34.89196171005818</v>
+        <v>34.89196171005823</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>61.43811632924358</v>
+        <v>61.43811632924362</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30510009100576</v>
+        <v>18.30510009100575</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.68778680960774</v>
+        <v>10.68778680960775</v>
       </c>
       <c r="E22">
-        <v>19.81980290739999</v>
+        <v>19.81980290740005</v>
       </c>
       <c r="F22">
-        <v>83.24150158039416</v>
+        <v>83.24150158039394</v>
       </c>
       <c r="G22">
-        <v>66.87902410077831</v>
+        <v>66.87902410077815</v>
       </c>
       <c r="H22">
-        <v>36.35061595868966</v>
+        <v>36.35061595868978</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.37062461213765</v>
+        <v>64.3706246121376</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.93867798973267</v>
+        <v>17.93867798973262</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.29246050012595</v>
+        <v>10.29246050012598</v>
       </c>
       <c r="E23">
-        <v>19.51708866869212</v>
+        <v>19.51708866869208</v>
       </c>
       <c r="F23">
-        <v>80.49351595435527</v>
+        <v>80.49351595435522</v>
       </c>
       <c r="G23">
-        <v>64.65091695706171</v>
+        <v>64.65091695706168</v>
       </c>
       <c r="H23">
-        <v>35.55215820185283</v>
+        <v>35.55215820185274</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>62.79329206379993</v>
+        <v>62.79329206379989</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.52397190433778</v>
+        <v>16.5239719043378</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.939834639553741</v>
+        <v>8.939834639553657</v>
       </c>
       <c r="E24">
-        <v>18.26394840067782</v>
+        <v>18.26394840067785</v>
       </c>
       <c r="F24">
-        <v>70.89568342714931</v>
+        <v>70.89568342714919</v>
       </c>
       <c r="G24">
-        <v>56.87760714901414</v>
+        <v>56.87760714901402</v>
       </c>
       <c r="H24">
-        <v>32.82136335782693</v>
+        <v>32.82136335782703</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.00493256374709</v>
+        <v>57.0049325637471</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.91817691397851</v>
+        <v>14.91817691397848</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.632541624813677</v>
+        <v>7.632541624813581</v>
       </c>
       <c r="E25">
-        <v>16.91200959427908</v>
+        <v>16.91200959427902</v>
       </c>
       <c r="F25">
-        <v>61.34089079453132</v>
+        <v>61.34089079453135</v>
       </c>
       <c r="G25">
-        <v>49.14919075669545</v>
+        <v>49.14919075669547</v>
       </c>
       <c r="H25">
-        <v>29.90719870121679</v>
+        <v>29.90719870121668</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>50.80794478898937</v>
+        <v>50.80794478898933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.6536518471543</v>
+        <v>13.65625417276113</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.717755025776335</v>
+        <v>6.703837435506221</v>
       </c>
       <c r="E2">
-        <v>15.83295745592233</v>
+        <v>15.81905391813705</v>
       </c>
       <c r="F2">
-        <v>54.50065054061235</v>
+        <v>54.44082003918689</v>
       </c>
       <c r="G2">
-        <v>43.61940403945566</v>
+        <v>43.6743959463558</v>
       </c>
       <c r="H2">
-        <v>27.72231363687212</v>
+        <v>43.24405358355897</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>27.73268222099291</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.09885649357253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>46.08122591587848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.7411427801496</v>
+        <v>12.74360661758426</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.104897846387745</v>
+        <v>6.092450593198211</v>
       </c>
       <c r="E3">
-        <v>15.04608400120194</v>
+        <v>15.03325743291252</v>
       </c>
       <c r="F3">
-        <v>49.85281745457159</v>
+        <v>49.7997905912318</v>
       </c>
       <c r="G3">
-        <v>39.86163409309241</v>
+        <v>39.91328503293919</v>
       </c>
       <c r="H3">
-        <v>26.21044817100276</v>
+        <v>39.54068440694292</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>26.22006472550665</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>42.76428883952881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>42.748785449148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15246934267811</v>
+        <v>12.15483617612593</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.727111091234877</v>
+        <v>5.71554119842611</v>
       </c>
       <c r="E4">
-        <v>14.53785700041444</v>
+        <v>14.52574815340305</v>
       </c>
       <c r="F4">
-        <v>46.96433786307308</v>
+        <v>46.9152840025597</v>
       </c>
       <c r="G4">
-        <v>37.52543261686426</v>
+        <v>37.57480767553956</v>
       </c>
       <c r="H4">
-        <v>25.26641959908207</v>
+        <v>37.24320322100952</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>25.27551509614148</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>40.63466321467067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>40.62039119973762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.90532658346533</v>
+        <v>11.9076511152666</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.572202925328785</v>
+        <v>5.56098726047266</v>
       </c>
       <c r="E5">
-        <v>14.3248037081817</v>
+        <v>14.31300195979089</v>
       </c>
       <c r="F5">
-        <v>45.77530481990615</v>
+        <v>45.72783573929266</v>
       </c>
       <c r="G5">
-        <v>36.56342131421257</v>
+        <v>36.61182025355507</v>
       </c>
       <c r="H5">
-        <v>24.87787528732669</v>
+        <v>36.29843891527004</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.88674439339957</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>39.74480064007194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>39.73101799247104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86384777524483</v>
+        <v>11.86616512108002</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.546407824519197</v>
+        <v>5.535250854632698</v>
       </c>
       <c r="E6">
-        <v>14.28907819133023</v>
+        <v>14.27732833239465</v>
       </c>
       <c r="F6">
-        <v>45.57706461627275</v>
+        <v>45.52985703136353</v>
       </c>
       <c r="G6">
-        <v>36.40300854536851</v>
+        <v>36.45124264345004</v>
       </c>
       <c r="H6">
-        <v>24.8131315447329</v>
+        <v>36.14098293511077</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.82196223174753</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>39.59567467223759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>39.58197268773531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.14916579085526</v>
+        <v>12.15153206476959</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.725026508123121</v>
+        <v>5.713461402439707</v>
       </c>
       <c r="E7">
-        <v>14.53500727478074</v>
+        <v>14.52290250962767</v>
       </c>
       <c r="F7">
-        <v>46.94835426769988</v>
+        <v>46.8993218995538</v>
       </c>
       <c r="G7">
-        <v>37.51250220056621</v>
+        <v>37.561864283531</v>
       </c>
       <c r="H7">
-        <v>25.26119487238196</v>
+        <v>37.23049927004843</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>25.27028737215739</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>40.6227529928892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>40.60848762087493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34483292056401</v>
+        <v>13.34739015026633</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.506361128443128</v>
+        <v>6.492957943629994</v>
       </c>
       <c r="E8">
-        <v>15.56706123215196</v>
+        <v>15.55351756178405</v>
       </c>
       <c r="F8">
-        <v>52.90307213061822</v>
+        <v>52.84564200154627</v>
       </c>
       <c r="G8">
-        <v>42.32788087972478</v>
+        <v>42.38177298699093</v>
       </c>
       <c r="H8">
-        <v>27.20431053227815</v>
+        <v>41.97025660344394</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>27.21443270895148</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>44.96524970133681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>44.94837252612262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.47115804432547</v>
+        <v>15.47397788390763</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.061556745614624</v>
+        <v>8.044139322773516</v>
       </c>
       <c r="E9">
-        <v>17.37619900602715</v>
+        <v>17.36026481234373</v>
       </c>
       <c r="F9">
-        <v>64.50585681923486</v>
+        <v>64.42916444431846</v>
       </c>
       <c r="G9">
-        <v>51.70838895994157</v>
+        <v>51.7688149483581</v>
       </c>
       <c r="H9">
-        <v>30.89349095565825</v>
+        <v>51.23968435650219</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.90510615778695</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>52.90920480404652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>52.88618310212141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91336672309605</v>
+        <v>16.91626924758162</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.289254982399768</v>
+        <v>9.268135932000602</v>
       </c>
       <c r="E10">
-        <v>18.62042525464374</v>
+        <v>18.60590271498795</v>
       </c>
       <c r="F10">
-        <v>73.40366765795041</v>
+        <v>73.30825853618883</v>
       </c>
       <c r="G10">
-        <v>58.90765894942213</v>
+        <v>58.96992690330972</v>
       </c>
       <c r="H10">
-        <v>33.55099091383947</v>
+        <v>58.37349615641825</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>33.56324778846032</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>58.55944154592814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>58.53023540064838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.5479329366024</v>
+        <v>17.55082813024509</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.894075619615629</v>
+        <v>9.870862419713783</v>
       </c>
       <c r="E11">
-        <v>19.18328717385315</v>
+        <v>19.16840540312516</v>
       </c>
       <c r="F11">
-        <v>77.69789093406688</v>
+        <v>77.59156156590777</v>
       </c>
       <c r="G11">
-        <v>62.38541275824312</v>
+        <v>62.44704013097315</v>
       </c>
       <c r="H11">
-        <v>34.75955136991254</v>
+        <v>61.82320116098657</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>34.77193463574768</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.15211569685146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>61.11921519502885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78572730973866</v>
+        <v>17.78860945754267</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.13388199573328</v>
+        <v>10.10977218146703</v>
       </c>
       <c r="E12">
-        <v>19.38769847090858</v>
+        <v>19.37269582288864</v>
       </c>
       <c r="F12">
-        <v>79.38386331176106</v>
+        <v>79.27279650776124</v>
       </c>
       <c r="G12">
-        <v>63.7515396225044</v>
+        <v>63.81254931885866</v>
       </c>
       <c r="H12">
-        <v>35.22113049299479</v>
+        <v>63.178706385796</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.2328722595585</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62.14627421220905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>62.1117538779578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73461272940153</v>
+        <v>17.73749824120799</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.08166270195929</v>
+        <v>10.05775174286295</v>
       </c>
       <c r="E13">
-        <v>19.34408553350792</v>
+        <v>19.32910811859056</v>
       </c>
       <c r="F13">
-        <v>79.0175438752356</v>
+        <v>78.90753072614531</v>
       </c>
       <c r="G13">
-        <v>63.45467826117223</v>
+        <v>63.51584198709649</v>
       </c>
       <c r="H13">
-        <v>35.11981467906749</v>
+        <v>62.88413854118243</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.13220924951446</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>61.931406980574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>61.89724775214628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.5675421560979</v>
+        <v>17.57043651587895</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.913556115652153</v>
+        <v>9.890271621439599</v>
       </c>
       <c r="E14">
-        <v>19.20028701027665</v>
+        <v>19.18539494801456</v>
       </c>
       <c r="F14">
-        <v>77.83520458347014</v>
+        <v>77.72849979770852</v>
       </c>
       <c r="G14">
-        <v>62.49666088400535</v>
+        <v>62.5582464397792</v>
       </c>
       <c r="H14">
-        <v>34.79729151654229</v>
+        <v>61.93357749897629</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>34.80967659366944</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>61.23358555253294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>61.20055704648762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.46490306691572</v>
+        <v>17.46780134187875</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.812152930214314</v>
+        <v>9.789236712082701</v>
       </c>
       <c r="E15">
-        <v>19.11102986371156</v>
+        <v>19.09619226952107</v>
       </c>
       <c r="F15">
-        <v>77.1197513867197</v>
+        <v>77.01498339017691</v>
       </c>
       <c r="G15">
-        <v>61.91704832020359</v>
+        <v>61.97883606827273</v>
       </c>
       <c r="H15">
-        <v>34.60001594269186</v>
+        <v>61.35852186196033</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.61239000186503</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>60.80812409137543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>60.77575527943168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.8715082200461</v>
+        <v>16.87441005754128</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.250961706778881</v>
+        <v>9.229968193633962</v>
       </c>
       <c r="E16">
-        <v>18.58248478534139</v>
+        <v>18.5679875016271</v>
       </c>
       <c r="F16">
-        <v>73.12977779573768</v>
+        <v>73.03501632909844</v>
       </c>
       <c r="G16">
-        <v>58.68592623302128</v>
+        <v>58.74819536084451</v>
       </c>
       <c r="H16">
-        <v>33.47212558629881</v>
+        <v>58.15361339515253</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>33.48437003987962</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>58.39112549012435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>58.36213659028402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50231658846465</v>
+        <v>16.50520719251887</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.920832841382262</v>
+        <v>8.900891427897875</v>
       </c>
       <c r="E17">
-        <v>18.24389884788267</v>
+        <v>18.22963125044613</v>
       </c>
       <c r="F17">
-        <v>70.75873344179851</v>
+        <v>70.66936622814906</v>
       </c>
       <c r="G17">
-        <v>56.76677579704017</v>
+        <v>56.82888285812208</v>
       </c>
       <c r="H17">
-        <v>32.78105076532653</v>
+        <v>56.25085204017783</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>32.79316726452948</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>56.91918987514397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>56.89200173801559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.28789760852537</v>
+        <v>16.2907778441589</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.734979996008128</v>
+        <v>8.715608890173668</v>
       </c>
       <c r="E18">
-        <v>18.04904486463369</v>
+        <v>18.03224414695336</v>
       </c>
       <c r="F18">
-        <v>69.41620627943961</v>
+        <v>69.32973698412623</v>
       </c>
       <c r="G18">
-        <v>55.68039792511178</v>
+        <v>55.74228658656997</v>
       </c>
       <c r="H18">
-        <v>32.38339192611779</v>
+        <v>55.17408303289801</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>32.39542027685363</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>56.07393678693109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>56.04770947109323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21492952085178</v>
+        <v>16.21780564921723</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.672653856006267</v>
+        <v>8.653470734969606</v>
       </c>
       <c r="E19">
-        <v>17.98966347428492</v>
+        <v>17.97293900998326</v>
       </c>
       <c r="F19">
-        <v>68.96475310223609</v>
+        <v>68.87923482990146</v>
       </c>
       <c r="G19">
-        <v>55.31512256706466</v>
+        <v>55.37691881621214</v>
       </c>
       <c r="H19">
-        <v>32.24868431991926</v>
+        <v>54.81209776799503</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>32.260680561759</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>55.78777837148237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>55.76186533690512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.54182841524966</v>
+        <v>16.54472063834584</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.955535905151477</v>
+        <v>8.935486319437441</v>
       </c>
       <c r="E20">
-        <v>18.2804635688113</v>
+        <v>18.26617082956563</v>
       </c>
       <c r="F20">
-        <v>71.00880207053855</v>
+        <v>70.91888308237598</v>
       </c>
       <c r="G20">
-        <v>56.96915375810259</v>
+        <v>57.03129180074134</v>
       </c>
       <c r="H20">
-        <v>32.85462511860048</v>
+        <v>56.45146782698342</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>32.86675680468936</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>57.07568767691714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>57.04831606490451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.61667659764366</v>
+        <v>17.61956868405849</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.962595323499347</v>
+        <v>9.939130182033518</v>
       </c>
       <c r="E21">
-        <v>19.24277195490719</v>
+        <v>19.22785435112348</v>
       </c>
       <c r="F21">
-        <v>78.1805935559192</v>
+        <v>78.07293652025263</v>
       </c>
       <c r="G21">
-        <v>62.7764987035797</v>
+        <v>62.83797260087961</v>
       </c>
       <c r="H21">
-        <v>34.89196171005823</v>
+        <v>62.21122808067904</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>34.90435069788749</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>61.43811632924362</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>61.40476285763928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30510009100575</v>
+        <v>18.30792723509168</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.68778680960775</v>
+        <v>10.66142678296912</v>
       </c>
       <c r="E22">
-        <v>19.81980290740005</v>
+        <v>19.8045720173779</v>
       </c>
       <c r="F22">
-        <v>83.24150158039394</v>
+        <v>83.1184042091962</v>
       </c>
       <c r="G22">
-        <v>66.87902410077815</v>
+        <v>66.93764910455067</v>
       </c>
       <c r="H22">
-        <v>36.35061595868978</v>
+        <v>66.28236185336287</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>36.36212466931886</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.3706246121376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>64.33194983350444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.93867798973262</v>
+        <v>17.94154807123615</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.29246050012598</v>
+        <v>10.26773367772511</v>
       </c>
       <c r="E23">
-        <v>19.51708866869208</v>
+        <v>19.50201320502469</v>
       </c>
       <c r="F23">
-        <v>80.49351595435522</v>
+        <v>80.37916956637363</v>
       </c>
       <c r="G23">
-        <v>64.65091695706168</v>
+        <v>64.71138843145509</v>
       </c>
       <c r="H23">
-        <v>35.55215820185274</v>
+        <v>64.07117683702047</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.56384790639333</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>62.79329206379989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>62.75764480560094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.5239719043378</v>
+        <v>16.52686340741146</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.939834639553657</v>
+        <v>8.919834063418969</v>
       </c>
       <c r="E24">
-        <v>18.26394840067785</v>
+        <v>18.24966700797907</v>
       </c>
       <c r="F24">
-        <v>70.89568342714919</v>
+        <v>70.80601451384688</v>
       </c>
       <c r="G24">
-        <v>56.87760714901402</v>
+        <v>56.93973156523371</v>
       </c>
       <c r="H24">
-        <v>32.82136335782703</v>
+        <v>56.36071729995169</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>32.83348822261675</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.0049325637471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>56.97764412690999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.91817691397848</v>
+        <v>14.92094074999842</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.632541624813581</v>
+        <v>7.616291183431747</v>
       </c>
       <c r="E25">
-        <v>16.91200959427902</v>
+        <v>16.89667808010789</v>
       </c>
       <c r="F25">
-        <v>61.34089079453135</v>
+        <v>61.26991901702854</v>
       </c>
       <c r="G25">
-        <v>49.14919075669547</v>
+        <v>49.20820656924566</v>
       </c>
       <c r="H25">
-        <v>29.90719870121668</v>
+        <v>48.70721465934906</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>29.9184762224552</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>50.80794478898933</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>50.78677185309698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.65625417276113</v>
+        <v>7.254399184203806</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.703837435506221</v>
+        <v>5.435203487559983</v>
       </c>
       <c r="E2">
-        <v>15.81905391813705</v>
+        <v>9.886922118399081</v>
       </c>
       <c r="F2">
-        <v>54.44082003918689</v>
+        <v>37.70527845833735</v>
       </c>
       <c r="G2">
-        <v>43.6743959463558</v>
+        <v>2.001639023184502</v>
       </c>
       <c r="H2">
-        <v>43.24405358355897</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>27.73268222099291</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.532251104328254</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>70.53182268672167</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>46.08122591587848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>26.63413628080816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.74360661758426</v>
+        <v>6.892728264896442</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.092450593198211</v>
+        <v>5.154228142566178</v>
       </c>
       <c r="E3">
-        <v>15.03325743291252</v>
+        <v>9.462745901920623</v>
       </c>
       <c r="F3">
-        <v>49.7997905912318</v>
+        <v>35.43834117116503</v>
       </c>
       <c r="G3">
-        <v>39.91328503293919</v>
+        <v>2.024055638030613</v>
       </c>
       <c r="H3">
-        <v>39.54068440694292</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>26.22006472550665</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.394065040789333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>65.42368541700819</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>42.748785449148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>25.0931086329585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.15483617612593</v>
+        <v>6.6653990438878</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.71554119842611</v>
+        <v>4.980250424335648</v>
       </c>
       <c r="E4">
-        <v>14.52574815340305</v>
+        <v>9.20274210470639</v>
       </c>
       <c r="F4">
-        <v>46.9152840025597</v>
+        <v>34.14718202021418</v>
       </c>
       <c r="G4">
-        <v>37.57480767553956</v>
+        <v>2.037772351528406</v>
       </c>
       <c r="H4">
-        <v>37.24320322100952</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>25.27551509614148</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.317917758939208</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>62.15092710660642</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>40.62039119973762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24.24103808668303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9076511152666</v>
+        <v>6.571535983201894</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.56098726047266</v>
+        <v>4.908840886258701</v>
       </c>
       <c r="E5">
-        <v>14.31300195979089</v>
+        <v>9.096861026873116</v>
       </c>
       <c r="F5">
-        <v>45.72783573929266</v>
+        <v>33.64502613396471</v>
       </c>
       <c r="G5">
-        <v>36.61182025355507</v>
+        <v>2.04336818475475</v>
       </c>
       <c r="H5">
-        <v>36.29843891527004</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>24.88674439339957</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.288901107938985</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>60.78131820543107</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>39.73101799247104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>23.91619519269602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86616512108002</v>
+        <v>6.555879482961018</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.535250854632698</v>
+        <v>4.896948864156018</v>
       </c>
       <c r="E6">
-        <v>14.27732833239465</v>
+        <v>9.079283580752627</v>
       </c>
       <c r="F6">
-        <v>45.52985703136353</v>
+        <v>33.56305920751119</v>
       </c>
       <c r="G6">
-        <v>36.45124264345004</v>
+        <v>2.044298211975194</v>
       </c>
       <c r="H6">
-        <v>36.14098293511077</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>24.82196223174753</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.284199893073882</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>60.55168152234815</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>39.58197268773531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>23.86357157241521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.15153206476959</v>
+        <v>6.664137984114162</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.713461402439707</v>
+        <v>4.979289610885896</v>
       </c>
       <c r="E7">
-        <v>14.52290250962767</v>
+        <v>9.201313882946261</v>
       </c>
       <c r="F7">
-        <v>46.8993218995538</v>
+        <v>34.14031414999419</v>
       </c>
       <c r="G7">
-        <v>37.561864283531</v>
+        <v>2.037847772280257</v>
       </c>
       <c r="H7">
-        <v>37.23049927004843</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>25.27028737215739</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.317518488951368</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>62.1326035879161</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>40.60848762087493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>24.2365681294072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.34739015026633</v>
+        <v>7.13083874315443</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.492957943629994</v>
+        <v>5.338526040839218</v>
       </c>
       <c r="E8">
-        <v>15.55351756178405</v>
+        <v>9.740537336410956</v>
       </c>
       <c r="F8">
-        <v>52.84564200154627</v>
+        <v>36.90182266502933</v>
       </c>
       <c r="G8">
-        <v>42.38177298699093</v>
+        <v>2.009389931899817</v>
       </c>
       <c r="H8">
-        <v>41.97025660344394</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>27.21443270895148</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.482686678797148</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>68.79776261530691</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>44.94837252612262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>26.08242845577654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.47397788390763</v>
+        <v>8.001251625464972</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.044139322773516</v>
+        <v>6.040414191301031</v>
       </c>
       <c r="E9">
-        <v>17.36026481234373</v>
+        <v>10.80599693404264</v>
       </c>
       <c r="F9">
-        <v>64.42916444431846</v>
+        <v>43.62769455409602</v>
       </c>
       <c r="G9">
-        <v>51.7688149483581</v>
+        <v>1.952187414591784</v>
       </c>
       <c r="H9">
-        <v>51.23968435650219</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>30.90510615778695</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.885111322933947</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>80.87691357982094</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>52.88618310212141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.43161551672591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.91626924758162</v>
+        <v>8.671636724398342</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.268135932000602</v>
+        <v>6.572367193123879</v>
       </c>
       <c r="E10">
-        <v>18.60590271498795</v>
+        <v>11.60581426484967</v>
       </c>
       <c r="F10">
-        <v>73.30825853618883</v>
+        <v>49.46727727758601</v>
       </c>
       <c r="G10">
-        <v>58.96992690330972</v>
+        <v>1.907400929573441</v>
       </c>
       <c r="H10">
-        <v>58.37349615641825</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>33.56324778846032</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.246052568814614</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>89.3107931097162</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>58.53023540064838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>36.00936332400927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.55082813024509</v>
+        <v>8.998141507278625</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.870862419713783</v>
+        <v>6.824216617327035</v>
       </c>
       <c r="E11">
-        <v>19.16840540312516</v>
+        <v>11.97847784491849</v>
       </c>
       <c r="F11">
-        <v>77.59156156590777</v>
+        <v>52.32132949220355</v>
       </c>
       <c r="G11">
-        <v>62.44704013097315</v>
+        <v>1.885782611748958</v>
       </c>
       <c r="H11">
-        <v>61.82320116098657</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>34.77193463574768</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.443271541285953</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>93.105217344187</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>61.11921519502885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>38.24337543341625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78860945754267</v>
+        <v>9.119911449483194</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.10977218146703</v>
+        <v>6.92181568435668</v>
       </c>
       <c r="E12">
-        <v>19.37269582288864</v>
+        <v>12.12156610943791</v>
       </c>
       <c r="F12">
-        <v>79.27279650776124</v>
+        <v>53.44011277849593</v>
       </c>
       <c r="G12">
-        <v>63.81254931885866</v>
+        <v>1.877336227737815</v>
       </c>
       <c r="H12">
-        <v>63.178706385796</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>35.2328722595585</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.574849611423638</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>94.54255149100534</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>62.1117538779578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>39.11878604163373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.73749824120799</v>
+        <v>9.093766289043183</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.05775174286295</v>
+        <v>6.900680171578549</v>
       </c>
       <c r="E13">
-        <v>19.32910811859056</v>
+        <v>12.09064725916255</v>
       </c>
       <c r="F13">
-        <v>78.90753072614531</v>
+        <v>53.19727165565003</v>
       </c>
       <c r="G13">
-        <v>63.51584198709649</v>
+        <v>1.879168522030289</v>
       </c>
       <c r="H13">
-        <v>62.88413854118243</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>35.13220924951446</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.546419303027357</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>94.2328431946313</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>61.89724775214628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>38.9287821242041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.57043651587895</v>
+        <v>9.00819601315508</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.890271621439599</v>
+        <v>6.832195606550222</v>
       </c>
       <c r="E14">
-        <v>19.18539494801456</v>
+        <v>11.99020518567539</v>
       </c>
       <c r="F14">
-        <v>77.72849979770852</v>
+        <v>52.4125400801299</v>
       </c>
       <c r="G14">
-        <v>62.5582464397792</v>
+        <v>1.885093515148578</v>
       </c>
       <c r="H14">
-        <v>61.93357749897629</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>34.80967659366944</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.454056593489431</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>93.22341180877575</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>61.20055704648762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>38.31474994769384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.46780134187875</v>
+        <v>8.955543609525121</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.789236712082701</v>
+        <v>6.79056693869875</v>
       </c>
       <c r="E15">
-        <v>19.09619226952107</v>
+        <v>11.92896407338025</v>
       </c>
       <c r="F15">
-        <v>77.01498339017691</v>
+        <v>51.93717772127913</v>
       </c>
       <c r="G15">
-        <v>61.97883606827273</v>
+        <v>1.888685929327809</v>
       </c>
       <c r="H15">
-        <v>61.35852186196033</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>34.61239000186503</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.405223591014575</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>92.60540333628656</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>60.77575527943168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>37.94275566073649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.87441005754128</v>
+        <v>8.650027640322566</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.229968193633962</v>
+        <v>6.556168862584522</v>
       </c>
       <c r="E16">
-        <v>18.5679875016271</v>
+        <v>11.5816904274851</v>
       </c>
       <c r="F16">
-        <v>73.03501632909844</v>
+        <v>49.28546433395124</v>
       </c>
       <c r="G16">
-        <v>58.74819536084451</v>
+        <v>1.908782454027135</v>
       </c>
       <c r="H16">
-        <v>58.15361339515253</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>33.48437003987962</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.234472954465673</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>89.06247518442527</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>58.36213659028402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.86699679822897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50520719251887</v>
+        <v>8.459092029411632</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.900891427897875</v>
+        <v>6.415382221103499</v>
       </c>
       <c r="E17">
-        <v>18.22963125044613</v>
+        <v>11.37131797923487</v>
       </c>
       <c r="F17">
-        <v>70.66936622814906</v>
+        <v>47.714970504123</v>
       </c>
       <c r="G17">
-        <v>56.82888285812208</v>
+        <v>1.920743612399339</v>
       </c>
       <c r="H17">
-        <v>56.25085204017783</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>32.79316726452948</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.135294425791414</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>86.88215108656556</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>56.89200173801559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.63689914838415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.2907778441589</v>
+        <v>8.347933139854662</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.715608890173668</v>
+        <v>6.335270867458608</v>
       </c>
       <c r="E18">
-        <v>18.03224414695336</v>
+        <v>11.25109212738424</v>
       </c>
       <c r="F18">
-        <v>69.32973698412623</v>
+        <v>46.82950496362044</v>
       </c>
       <c r="G18">
-        <v>55.74228658656997</v>
+        <v>1.927512412405929</v>
       </c>
       <c r="H18">
-        <v>55.17408303289801</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>32.39542027685363</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.08007790476535</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>85.6236183580674</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>56.04770947109323</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.94304351544737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.21780564921723</v>
+        <v>8.314460316581192</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.653470734969606</v>
+        <v>6.308275356128634</v>
       </c>
       <c r="E19">
-        <v>17.97293900998326</v>
+        <v>11.21050211229966</v>
       </c>
       <c r="F19">
-        <v>68.87923482990146</v>
+        <v>46.53253550810837</v>
       </c>
       <c r="G19">
-        <v>55.37691881621214</v>
+        <v>1.929787154261574</v>
       </c>
       <c r="H19">
-        <v>54.81209776799503</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>32.260680561759</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.061678433371847</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>85.19657064559692</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>55.76186533690512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.71027919537269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.54472063834584</v>
+        <v>8.479554915646862</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.935486319437441</v>
+        <v>6.430274755766203</v>
       </c>
       <c r="E20">
-        <v>18.26617082956563</v>
+        <v>11.39362816837208</v>
       </c>
       <c r="F20">
-        <v>70.91888308237598</v>
+        <v>47.88024890080425</v>
       </c>
       <c r="G20">
-        <v>57.03129180074134</v>
+        <v>1.919482299516533</v>
       </c>
       <c r="H20">
-        <v>56.45146782698342</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>32.86675680468936</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.145658465084247</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>87.11467278918194</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>57.04831606490451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.76638564040132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.61956868405849</v>
+        <v>9.03337935568446</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.939130182033518</v>
+        <v>6.852242515131046</v>
       </c>
       <c r="E21">
-        <v>19.22785435112348</v>
+        <v>12.01964684300293</v>
       </c>
       <c r="F21">
-        <v>78.07293652025263</v>
+        <v>52.64190490246661</v>
       </c>
       <c r="G21">
-        <v>62.83797260087961</v>
+        <v>1.88336106707591</v>
       </c>
       <c r="H21">
-        <v>62.21122808067904</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>34.90435069788749</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.481131413044609</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>93.5198288482722</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>61.40476285763928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>38.49422910654103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.30792723509168</v>
+        <v>9.384546142012361</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.66142678296912</v>
+        <v>7.141680310282962</v>
       </c>
       <c r="E22">
-        <v>19.8045720173779</v>
+        <v>12.44085532209619</v>
       </c>
       <c r="F22">
-        <v>83.1184042091962</v>
+        <v>55.98359391783869</v>
       </c>
       <c r="G22">
-        <v>66.93764910455067</v>
+        <v>1.858172979467514</v>
       </c>
       <c r="H22">
-        <v>66.28236185336287</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>36.36212466931886</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.868544003345646</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>97.71386127560493</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>64.33194983350444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>41.10860227257385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.94154807123615</v>
+        <v>9.198043661059229</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.26773367772511</v>
+        <v>6.98558449708946</v>
       </c>
       <c r="E23">
-        <v>19.50201320502469</v>
+        <v>12.21461926914369</v>
       </c>
       <c r="F23">
-        <v>80.37916956637363</v>
+        <v>54.17462401976197</v>
       </c>
       <c r="G23">
-        <v>64.71138843145509</v>
+        <v>1.871797349364985</v>
       </c>
       <c r="H23">
-        <v>64.07117683702047</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>35.56384790639333</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.660416550954268</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>95.47180684304796</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>62.75764480560094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>39.6934513172619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.52686340741146</v>
+        <v>8.470307977495819</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.919834063418969</v>
+        <v>6.4235393155096</v>
       </c>
       <c r="E24">
-        <v>18.24966700797907</v>
+        <v>11.38353953700594</v>
       </c>
       <c r="F24">
-        <v>70.80601451384688</v>
+        <v>47.80547289963643</v>
       </c>
       <c r="G24">
-        <v>56.93973156523371</v>
+        <v>1.920052869316389</v>
       </c>
       <c r="H24">
-        <v>56.36071729995169</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>32.83348822261675</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.14096731953513</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>87.00956586665211</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>56.97764412690999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.70780375954103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.92094074999842</v>
+        <v>7.770896950460285</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.616291183431747</v>
+        <v>5.849303656187232</v>
       </c>
       <c r="E25">
-        <v>16.89667808010789</v>
+        <v>10.51599708773351</v>
       </c>
       <c r="F25">
-        <v>61.26991901702854</v>
+        <v>41.60693475417229</v>
       </c>
       <c r="G25">
-        <v>49.20820656924566</v>
+        <v>1.967977432710444</v>
       </c>
       <c r="H25">
-        <v>48.70721465934906</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>29.9184762224552</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.766315623156684</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>77.70084294677582</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>50.78677185309698</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.84394809217977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.254399184203806</v>
+        <v>16.69095210367884</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.435203487559983</v>
+        <v>2.284748351538338</v>
       </c>
       <c r="E2">
-        <v>9.886922118399081</v>
+        <v>17.17149021347235</v>
       </c>
       <c r="F2">
-        <v>37.70527845833735</v>
+        <v>23.56677733643987</v>
       </c>
       <c r="G2">
-        <v>2.001639023184502</v>
+        <v>2.022731996851747</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.80317497311463</v>
       </c>
       <c r="J2">
-        <v>6.532251104328254</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>70.53182268672167</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.41043837305028</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.91937747670489</v>
       </c>
       <c r="O2">
-        <v>26.63413628080816</v>
+        <v>17.98058773013836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.892728264896442</v>
+        <v>15.67015555259263</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.154228142566178</v>
+        <v>2.252638603125199</v>
       </c>
       <c r="E3">
-        <v>9.462745901920623</v>
+        <v>16.69877636752279</v>
       </c>
       <c r="F3">
-        <v>35.43834117116503</v>
+        <v>22.17173597633987</v>
       </c>
       <c r="G3">
-        <v>2.024055638030613</v>
+        <v>2.029389153307054</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.23887901489141</v>
       </c>
       <c r="J3">
-        <v>6.394065040789333</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>65.42368541700819</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.751273157197959</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.82472235479277</v>
       </c>
       <c r="O3">
-        <v>25.0931086329585</v>
+        <v>17.03102681048632</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.6653990438878</v>
+        <v>15.01127137555721</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.980250424335648</v>
+        <v>2.232543553579303</v>
       </c>
       <c r="E4">
-        <v>9.20274210470639</v>
+        <v>16.40254677396278</v>
       </c>
       <c r="F4">
-        <v>34.14718202021418</v>
+        <v>21.2901471822029</v>
       </c>
       <c r="G4">
-        <v>2.037772351528406</v>
+        <v>2.033600745984927</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.51370540838492</v>
       </c>
       <c r="J4">
-        <v>6.317917758939208</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>62.15092710660642</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.324012060082492</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.77034707693158</v>
       </c>
       <c r="O4">
-        <v>24.24103808668303</v>
+        <v>16.43736362273616</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.571535983201894</v>
+        <v>14.7348231732679</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.908840886258701</v>
+        <v>2.224265112893143</v>
       </c>
       <c r="E5">
-        <v>9.096861026873116</v>
+        <v>16.28046809785157</v>
       </c>
       <c r="F5">
-        <v>33.64502613396471</v>
+        <v>20.92495395028316</v>
       </c>
       <c r="G5">
-        <v>2.04336818475475</v>
+        <v>2.035349166097591</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.62757899303066</v>
       </c>
       <c r="J5">
-        <v>6.288901107938985</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>60.78131820543107</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.14423064502491</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.74913540628647</v>
       </c>
       <c r="O5">
-        <v>23.91619519269602</v>
+        <v>16.19307254479763</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.555879482961018</v>
+        <v>14.68844359133178</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.896948864156018</v>
+        <v>2.222885252623918</v>
       </c>
       <c r="E6">
-        <v>9.079283580752627</v>
+        <v>16.26011908150043</v>
       </c>
       <c r="F6">
-        <v>33.56305920751119</v>
+        <v>20.86396728310623</v>
       </c>
       <c r="G6">
-        <v>2.044298211975194</v>
+        <v>2.035641459631833</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.64660236832363</v>
       </c>
       <c r="J6">
-        <v>6.284199893073882</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>60.55168152234815</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.114035755248901</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.74567053974134</v>
       </c>
       <c r="O6">
-        <v>23.86357157241521</v>
+        <v>16.1523751370301</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.664137984114162</v>
+        <v>15.00757508301765</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.979289610885896</v>
+        <v>2.232432262241208</v>
       </c>
       <c r="E7">
-        <v>9.201313882946261</v>
+        <v>16.40090570044688</v>
       </c>
       <c r="F7">
-        <v>34.14031414999419</v>
+        <v>21.28524557166197</v>
       </c>
       <c r="G7">
-        <v>2.037847772280257</v>
+        <v>2.033624194329605</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.51523348098957</v>
       </c>
       <c r="J7">
-        <v>6.317518488951368</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>62.1326035879161</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.321610417080821</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.77005716940809</v>
       </c>
       <c r="O7">
-        <v>24.2365681294072</v>
+        <v>16.43407817451843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.13083874315443</v>
+        <v>16.34571138088576</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.338526040839218</v>
+        <v>2.273759139451411</v>
       </c>
       <c r="E8">
-        <v>9.740537336410956</v>
+        <v>17.00982101291459</v>
       </c>
       <c r="F8">
-        <v>36.90182266502933</v>
+        <v>23.09114833724062</v>
       </c>
       <c r="G8">
-        <v>2.009389931899817</v>
+        <v>2.02500222989985</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.95191692069826</v>
       </c>
       <c r="J8">
-        <v>6.482686678797148</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>68.79776261530691</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.18782973723442</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.88596698907499</v>
       </c>
       <c r="O8">
-        <v>26.08242845577654</v>
+        <v>17.65555034900162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.001251625464972</v>
+        <v>18.71111206600475</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.040414191301031</v>
+        <v>2.351544950168004</v>
       </c>
       <c r="E9">
-        <v>10.80599693404264</v>
+        <v>18.15086667173114</v>
       </c>
       <c r="F9">
-        <v>43.62769455409602</v>
+        <v>26.43409574380741</v>
       </c>
       <c r="G9">
-        <v>1.952187414591784</v>
+        <v>2.009032579082187</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.90311072452173</v>
       </c>
       <c r="J9">
-        <v>6.885111322933947</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>80.87691357982094</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.70830567716843</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.14269397084794</v>
       </c>
       <c r="O9">
-        <v>31.43161551672591</v>
+        <v>19.95600745198197</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.671636724398342</v>
+        <v>20.37154625845154</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.572367193123879</v>
+        <v>2.406404768742793</v>
       </c>
       <c r="E10">
-        <v>11.60581426484967</v>
+        <v>18.95033989436929</v>
       </c>
       <c r="F10">
-        <v>49.46727727758601</v>
+        <v>28.95934172665823</v>
       </c>
       <c r="G10">
-        <v>1.907400929573441</v>
+        <v>1.997801986970883</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.16350408510253</v>
       </c>
       <c r="J10">
-        <v>7.246052568814614</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>89.3107931097162</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.71812258142143</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.34884303432952</v>
       </c>
       <c r="O10">
-        <v>36.00936332400927</v>
+        <v>21.81725722312323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.998141507278625</v>
+        <v>21.09587098124588</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.824216617327035</v>
+        <v>2.43080759355999</v>
       </c>
       <c r="E11">
-        <v>11.97847784491849</v>
+        <v>19.30450200960731</v>
       </c>
       <c r="F11">
-        <v>52.32132949220355</v>
+        <v>30.06482485409679</v>
       </c>
       <c r="G11">
-        <v>1.885782611748958</v>
+        <v>1.992785189893128</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.83302331988783</v>
       </c>
       <c r="J11">
-        <v>7.443271541285953</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>93.105217344187</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.1546310208988</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.44633176491779</v>
       </c>
       <c r="O11">
-        <v>38.24337543341625</v>
+        <v>22.66622939684382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.119911449483194</v>
+        <v>21.3643038402003</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.92181568435668</v>
+        <v>2.439964508002974</v>
       </c>
       <c r="E12">
-        <v>12.12156610943791</v>
+        <v>19.4371713398366</v>
       </c>
       <c r="F12">
-        <v>53.44011277849593</v>
+        <v>30.47734062674625</v>
       </c>
       <c r="G12">
-        <v>1.877336227737815</v>
+        <v>1.990897182471153</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.70867263269092</v>
       </c>
       <c r="J12">
-        <v>7.574849611423638</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>94.54255149100534</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.31667737275564</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.48377214063168</v>
       </c>
       <c r="O12">
-        <v>39.11878604163373</v>
+        <v>22.98294656435885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.093766289043183</v>
+        <v>21.30675135571985</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.900680171578549</v>
+        <v>2.437996198746815</v>
       </c>
       <c r="E13">
-        <v>12.09064725916255</v>
+        <v>19.40866389641206</v>
       </c>
       <c r="F13">
-        <v>53.19727165565003</v>
+        <v>30.38876741223824</v>
       </c>
       <c r="G13">
-        <v>1.879168522030289</v>
+        <v>1.991303301447174</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.73541946730369</v>
       </c>
       <c r="J13">
-        <v>7.546419303027357</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>94.2328431946313</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.28192168098994</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.47568556585304</v>
       </c>
       <c r="O13">
-        <v>38.9287821242041</v>
+        <v>22.91494592592683</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.00819601315508</v>
+        <v>21.11807206638287</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.832195606550222</v>
+        <v>2.431562643312352</v>
       </c>
       <c r="E14">
-        <v>11.99020518567539</v>
+        <v>19.3154461169308</v>
       </c>
       <c r="F14">
-        <v>52.4125400801299</v>
+        <v>30.09888439414676</v>
       </c>
       <c r="G14">
-        <v>1.885093515148578</v>
+        <v>1.992629636011591</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.8227773554821</v>
       </c>
       <c r="J14">
-        <v>7.454056593489431</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>93.22341180877575</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.16802757201696</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.44940157391819</v>
       </c>
       <c r="O14">
-        <v>38.31474994769384</v>
+        <v>22.69238076610957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.955543609525121</v>
+        <v>21.00174012756106</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.79056693869875</v>
+        <v>2.427610856502874</v>
       </c>
       <c r="E15">
-        <v>11.92896407338025</v>
+        <v>19.25815748152314</v>
       </c>
       <c r="F15">
-        <v>51.93717772127913</v>
+        <v>29.9205313413098</v>
       </c>
       <c r="G15">
-        <v>1.888685929327809</v>
+        <v>1.993443537262863</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.87638818883855</v>
       </c>
       <c r="J15">
-        <v>7.405223591014575</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>92.60540333628656</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.09784210679837</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.43336974264019</v>
       </c>
       <c r="O15">
-        <v>37.94275566073649</v>
+        <v>22.55543578944291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.650027640322566</v>
+        <v>20.32338752716701</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.556168862584522</v>
+        <v>2.404798472171383</v>
       </c>
       <c r="E16">
-        <v>11.5816904274851</v>
+        <v>18.92699622892613</v>
       </c>
       <c r="F16">
-        <v>49.28546433395124</v>
+        <v>28.88623429851776</v>
       </c>
       <c r="G16">
-        <v>1.908782454027135</v>
+        <v>1.99813157411032</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.18521660481019</v>
       </c>
       <c r="J16">
-        <v>7.234472954465673</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>89.06247518442527</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.68913878695168</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.34254572913077</v>
       </c>
       <c r="O16">
-        <v>35.86699679822897</v>
+        <v>21.76110053130939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.459092029411632</v>
+        <v>19.89674971390169</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.415382221103499</v>
+        <v>2.390658884034901</v>
       </c>
       <c r="E17">
-        <v>11.37131797923487</v>
+        <v>18.72134286374875</v>
       </c>
       <c r="F17">
-        <v>47.714970504123</v>
+        <v>28.24071709453213</v>
       </c>
       <c r="G17">
-        <v>1.920743612399339</v>
+        <v>2.001030087523405</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.37615826711289</v>
       </c>
       <c r="J17">
-        <v>7.135294425791414</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>86.88215108656556</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.43258218383828</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.28777144161795</v>
       </c>
       <c r="O17">
-        <v>34.63689914838415</v>
+        <v>21.26517348728923</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.347933139854662</v>
+        <v>19.64748456174608</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.335270867458608</v>
+        <v>2.38247433196821</v>
       </c>
       <c r="E18">
-        <v>11.25109212738424</v>
+        <v>18.60216379211548</v>
       </c>
       <c r="F18">
-        <v>46.82950496362044</v>
+        <v>27.86535154517053</v>
       </c>
       <c r="G18">
-        <v>1.927512412405929</v>
+        <v>2.002705996982796</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.48654882985258</v>
       </c>
       <c r="J18">
-        <v>7.08007790476535</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>85.6236183580674</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.28286313378572</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.25661659803454</v>
       </c>
       <c r="O18">
-        <v>33.94304351544737</v>
+        <v>20.97672203321319</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.314460316581192</v>
+        <v>19.5624204534662</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.308275356128634</v>
+        <v>2.379694420893755</v>
       </c>
       <c r="E19">
-        <v>11.21050211229966</v>
+        <v>18.56166099909845</v>
       </c>
       <c r="F19">
-        <v>46.53253550810837</v>
+        <v>27.73755530847428</v>
       </c>
       <c r="G19">
-        <v>1.929787154261574</v>
+        <v>2.003274979328874</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.52402423909926</v>
       </c>
       <c r="J19">
-        <v>7.061678433371847</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>85.19657064559692</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.231799735095</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.24612849588599</v>
       </c>
       <c r="O19">
-        <v>33.71027919537269</v>
+        <v>20.87850323297755</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.479554915646862</v>
+        <v>19.94256659322819</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.430274755766203</v>
+        <v>2.392169465094961</v>
       </c>
       <c r="E20">
-        <v>11.39362816837208</v>
+        <v>18.74332799372304</v>
       </c>
       <c r="F20">
-        <v>47.88024890080425</v>
+        <v>28.30985515369204</v>
       </c>
       <c r="G20">
-        <v>1.919482299516533</v>
+        <v>2.000720639483858</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.35577406974129</v>
       </c>
       <c r="J20">
-        <v>7.145658465084247</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>87.11467278918194</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.46011579512365</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.29356611880378</v>
       </c>
       <c r="O20">
-        <v>34.76638564040132</v>
+        <v>21.31829693159953</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.03337935568446</v>
+        <v>21.1736501080677</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.852242515131046</v>
+        <v>2.433454644076703</v>
       </c>
       <c r="E21">
-        <v>12.01964684300293</v>
+        <v>19.34286615901176</v>
       </c>
       <c r="F21">
-        <v>52.64190490246661</v>
+        <v>30.18419472826047</v>
       </c>
       <c r="G21">
-        <v>1.88336106707591</v>
+        <v>1.992239753184492</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.79709717127801</v>
       </c>
       <c r="J21">
-        <v>7.481131413044609</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>93.5198288482722</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.20156891026245</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.4571076932187</v>
       </c>
       <c r="O21">
-        <v>38.49422910654103</v>
+        <v>22.75788197415834</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.384546142012361</v>
+        <v>21.9441474185259</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.141680310282962</v>
+        <v>2.459946149485973</v>
       </c>
       <c r="E22">
-        <v>12.44085532209619</v>
+        <v>19.72625664268802</v>
       </c>
       <c r="F22">
-        <v>55.98359391783869</v>
+        <v>31.37366467298541</v>
       </c>
       <c r="G22">
-        <v>1.858172979467514</v>
+        <v>1.986764673270567</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.43657189037881</v>
       </c>
       <c r="J22">
-        <v>7.868544003345646</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>97.71386127560493</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.66722927657367</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.56703813878636</v>
       </c>
       <c r="O22">
-        <v>41.10860227257385</v>
+        <v>23.67099873751338</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.198043661059229</v>
+        <v>21.53601685083668</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.98558449708946</v>
+        <v>2.445853353735447</v>
       </c>
       <c r="E23">
-        <v>12.21461926914369</v>
+        <v>19.52242744073098</v>
       </c>
       <c r="F23">
-        <v>54.17462401976197</v>
+        <v>30.74202624598805</v>
       </c>
       <c r="G23">
-        <v>1.871797349364985</v>
+        <v>1.989681162125023</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.6285920109099</v>
       </c>
       <c r="J23">
-        <v>7.660416550954268</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>95.47180684304796</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.42041524581831</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.50809082080867</v>
       </c>
       <c r="O23">
-        <v>39.6934513172619</v>
+        <v>23.18614488715478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.470307977495819</v>
+        <v>19.92186520019964</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.4235393155096</v>
+        <v>2.391486703976978</v>
       </c>
       <c r="E24">
-        <v>11.38353953700594</v>
+        <v>18.73339145784913</v>
       </c>
       <c r="F24">
-        <v>47.80547289963643</v>
+        <v>28.27861108047945</v>
       </c>
       <c r="G24">
-        <v>1.920052869316389</v>
+        <v>2.000860511192605</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.36498784300791</v>
       </c>
       <c r="J24">
-        <v>7.14096731953513</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>87.00956586665211</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.44767477092446</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.29094529909429</v>
       </c>
       <c r="O24">
-        <v>34.70780375954103</v>
+        <v>21.29429022315466</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.770896950460285</v>
+        <v>18.09933099405112</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.849303656187232</v>
+        <v>2.330883129849439</v>
       </c>
       <c r="E25">
-        <v>10.51599708773351</v>
+        <v>17.8485861177139</v>
       </c>
       <c r="F25">
-        <v>41.60693475417229</v>
+        <v>25.54507426987233</v>
       </c>
       <c r="G25">
-        <v>1.967977432710444</v>
+        <v>2.013259248761709</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.18116954964441</v>
       </c>
       <c r="J25">
-        <v>6.766315623156684</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>77.70084294677582</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.31593623048038</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.07013106937378</v>
       </c>
       <c r="O25">
-        <v>29.84394809217977</v>
+        <v>19.34507811437555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.69095210367884</v>
+        <v>14.97770889801861</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.284748351538338</v>
+        <v>3.234510661840577</v>
       </c>
       <c r="E2">
-        <v>17.17149021347235</v>
+        <v>18.418478947062</v>
       </c>
       <c r="F2">
-        <v>23.56677733643987</v>
+        <v>21.4860049255458</v>
       </c>
       <c r="G2">
-        <v>2.022731996851747</v>
+        <v>3.583448579622964</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.80317497311463</v>
+        <v>22.40359339487079</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.41043837305028</v>
+        <v>9.441462969642364</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.91937747670489</v>
+        <v>17.76107303827146</v>
       </c>
       <c r="O2">
-        <v>17.98058773013836</v>
+        <v>18.65945141104023</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.67015555259263</v>
+        <v>14.66425713582991</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.252638603125199</v>
+        <v>3.225671528957201</v>
       </c>
       <c r="E3">
-        <v>16.69877636752279</v>
+        <v>18.29573303088289</v>
       </c>
       <c r="F3">
-        <v>22.17173597633987</v>
+        <v>21.18169610203237</v>
       </c>
       <c r="G3">
-        <v>2.029389153307054</v>
+        <v>3.586025822461743</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.23887901489141</v>
+        <v>22.55863817489225</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.751273157197959</v>
+        <v>9.286277363253578</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.82472235479277</v>
+        <v>17.75882083674559</v>
       </c>
       <c r="O3">
-        <v>17.03102681048632</v>
+        <v>18.50459139237228</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.01127137555721</v>
+        <v>14.47015359799598</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.232543553579303</v>
+        <v>3.220175537588557</v>
       </c>
       <c r="E4">
-        <v>16.40254677396278</v>
+        <v>18.22062115671494</v>
       </c>
       <c r="F4">
-        <v>21.2901471822029</v>
+        <v>21.00015353189779</v>
       </c>
       <c r="G4">
-        <v>2.033600745984927</v>
+        <v>3.587693434609639</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.51370540838492</v>
+        <v>22.6586139566817</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.324012060082492</v>
+        <v>9.191104031185096</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.77034707693158</v>
+        <v>17.75955815525293</v>
       </c>
       <c r="O4">
-        <v>16.43736362273616</v>
+        <v>18.41488877812746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.7348231732679</v>
+        <v>14.39074683881289</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.224265112893143</v>
+        <v>3.217919092348814</v>
       </c>
       <c r="E5">
-        <v>16.28046809785157</v>
+        <v>18.19009584480417</v>
       </c>
       <c r="F5">
-        <v>20.92495395028316</v>
+        <v>20.92760830132575</v>
       </c>
       <c r="G5">
-        <v>2.035349166097591</v>
+        <v>3.588394489439751</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.62757899303066</v>
+        <v>22.70055981222025</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.14423064502491</v>
+        <v>9.152395473107223</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.74913540628647</v>
+        <v>17.7603943845475</v>
       </c>
       <c r="O5">
-        <v>16.19307254479763</v>
+        <v>18.37972527543774</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.68844359133178</v>
+        <v>14.37754594337595</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.222885252623918</v>
+        <v>3.217543412125485</v>
       </c>
       <c r="E6">
-        <v>16.26011908150043</v>
+        <v>18.18503273818511</v>
       </c>
       <c r="F6">
-        <v>20.86396728310623</v>
+        <v>20.9156517707063</v>
       </c>
       <c r="G6">
-        <v>2.035641459631833</v>
+        <v>3.588512199066686</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.64660236832363</v>
+        <v>22.70759776722486</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.114035755248901</v>
+        <v>9.145973889999345</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.74567053974134</v>
+        <v>17.76056567298603</v>
       </c>
       <c r="O6">
-        <v>16.1523751370301</v>
+        <v>18.37397146024414</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.00757508301765</v>
+        <v>14.46908379634478</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.232432262241208</v>
+        <v>3.220145173690677</v>
       </c>
       <c r="E7">
-        <v>16.40090570044688</v>
+        <v>18.22020911859128</v>
       </c>
       <c r="F7">
-        <v>21.28524557166197</v>
+        <v>20.9991692208755</v>
       </c>
       <c r="G7">
-        <v>2.033624194329605</v>
+        <v>3.587702802175928</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.51523348098957</v>
+        <v>22.65917476983053</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.321610417080821</v>
+        <v>9.190581626061244</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.77005716940809</v>
+        <v>17.75956726026499</v>
       </c>
       <c r="O7">
-        <v>16.43407817451843</v>
+        <v>18.41440887105241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.34571138088576</v>
+        <v>14.87003368076345</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.273759139451411</v>
+        <v>3.231477491279989</v>
       </c>
       <c r="E8">
-        <v>17.00982101291459</v>
+        <v>18.37611497456589</v>
       </c>
       <c r="F8">
-        <v>23.09114833724062</v>
+        <v>21.38003988402463</v>
       </c>
       <c r="G8">
-        <v>2.02500222989985</v>
+        <v>3.584319578044996</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.95191692069826</v>
+        <v>22.45606336459074</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.18782973723442</v>
+        <v>9.387960141112933</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.88596698907499</v>
+        <v>17.75985804914194</v>
       </c>
       <c r="O8">
-        <v>17.65555034900162</v>
+        <v>18.60496213366215</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.71111206600475</v>
+        <v>15.63883325916875</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.351544950168004</v>
+        <v>3.253133444058929</v>
       </c>
       <c r="E9">
-        <v>18.15086667173114</v>
+        <v>18.68301148757191</v>
       </c>
       <c r="F9">
-        <v>26.43409574380741</v>
+        <v>22.16444089514406</v>
       </c>
       <c r="G9">
-        <v>2.009032579082187</v>
+        <v>3.578357653563752</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.90311072452173</v>
+        <v>22.0955083830682</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.70830567716843</v>
+        <v>9.773852895700202</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.14269397084794</v>
+        <v>17.77713181660327</v>
       </c>
       <c r="O9">
-        <v>19.95600745198197</v>
+        <v>19.01954607718686</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.37154625845154</v>
+        <v>16.1874098726353</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.406404768742793</v>
+        <v>3.268670719216701</v>
       </c>
       <c r="E10">
-        <v>18.95033989436929</v>
+        <v>18.90805136233534</v>
       </c>
       <c r="F10">
-        <v>28.95934172665823</v>
+        <v>22.75737941665145</v>
       </c>
       <c r="G10">
-        <v>1.997801986970883</v>
+        <v>3.574382897600391</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.16350408510253</v>
+        <v>21.85338950982447</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.71812258142143</v>
+        <v>10.05398316901023</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.34884303432952</v>
+        <v>17.79984051230942</v>
       </c>
       <c r="O10">
-        <v>21.81725722312323</v>
+        <v>19.34650207596431</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.09587098124588</v>
+        <v>16.43235215232298</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.43080759355999</v>
+        <v>3.275652029511948</v>
       </c>
       <c r="E11">
-        <v>19.30450200960731</v>
+        <v>19.01008826231665</v>
       </c>
       <c r="F11">
-        <v>30.06482485409679</v>
+        <v>23.02940969600635</v>
       </c>
       <c r="G11">
-        <v>1.992785189893128</v>
+        <v>3.572661755212656</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.83302331988783</v>
+        <v>21.7481409707198</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.1546310208988</v>
+        <v>10.18014676102371</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.44633176491779</v>
+        <v>17.81230858345413</v>
       </c>
       <c r="O11">
-        <v>22.66622939684382</v>
+        <v>19.49950812572564</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.3643038402003</v>
+        <v>16.52435937335301</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.439964508002974</v>
+        <v>3.278282682416508</v>
       </c>
       <c r="E12">
-        <v>19.4371713398366</v>
+        <v>19.04865819812283</v>
       </c>
       <c r="F12">
-        <v>30.47734062674625</v>
+        <v>23.13264222367547</v>
       </c>
       <c r="G12">
-        <v>1.990897182471153</v>
+        <v>3.572022439296995</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.70867263269092</v>
+        <v>21.70898596785781</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.31667737275564</v>
+        <v>10.22769636332203</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.48377214063168</v>
+        <v>17.81733384409631</v>
       </c>
       <c r="O12">
-        <v>22.98294656435885</v>
+        <v>19.55801028633869</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.30675135571985</v>
+        <v>16.50457848438903</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.437996198746815</v>
+        <v>3.27771671204207</v>
       </c>
       <c r="E13">
-        <v>19.40866389641206</v>
+        <v>19.04035488504346</v>
       </c>
       <c r="F13">
-        <v>30.38876741223824</v>
+        <v>23.11040116895531</v>
       </c>
       <c r="G13">
-        <v>1.991303301447174</v>
+        <v>3.572159575046811</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.73541946730369</v>
+        <v>21.71738760152669</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.28192168098994</v>
+        <v>10.217466417546</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.47568556585304</v>
+        <v>17.81623810731585</v>
       </c>
       <c r="O13">
-        <v>22.91494592592683</v>
+        <v>19.54538664137488</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.11807206638287</v>
+        <v>16.43993707853521</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.431562643312352</v>
+        <v>3.275868718982589</v>
       </c>
       <c r="E14">
-        <v>19.3154461169308</v>
+        <v>19.01326294167049</v>
       </c>
       <c r="F14">
-        <v>30.09888439414676</v>
+        <v>23.03789889972044</v>
       </c>
       <c r="G14">
-        <v>1.992629636011591</v>
+        <v>3.572608909302129</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.8227773554821</v>
+        <v>21.74490564760127</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.16802757201696</v>
+        <v>10.18406346217357</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.44940157391819</v>
+        <v>17.81271594537531</v>
       </c>
       <c r="O14">
-        <v>22.69238076610957</v>
+        <v>19.5043101709747</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.00174012756106</v>
+        <v>16.40024264568098</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.427610856502874</v>
+        <v>3.274735058114351</v>
       </c>
       <c r="E15">
-        <v>19.25815748152314</v>
+        <v>18.99665870619284</v>
       </c>
       <c r="F15">
-        <v>29.9205313413098</v>
+        <v>22.99351466381056</v>
       </c>
       <c r="G15">
-        <v>1.993443537262863</v>
+        <v>3.572885758040941</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.87638818883855</v>
+        <v>21.76185235487635</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.09784210679837</v>
+        <v>10.16357252791476</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.43336974264019</v>
+        <v>17.8105979852799</v>
       </c>
       <c r="O15">
-        <v>22.55543578944291</v>
+        <v>19.47922128154671</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.32338752716701</v>
+        <v>16.1713022428781</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.404798472171383</v>
+        <v>3.268212682710304</v>
       </c>
       <c r="E16">
-        <v>18.92699622892613</v>
+        <v>18.90137446841155</v>
       </c>
       <c r="F16">
-        <v>28.88623429851776</v>
+        <v>22.73963840582137</v>
       </c>
       <c r="G16">
-        <v>1.99813157411032</v>
+        <v>3.57449712316859</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.18521660481019</v>
+        <v>21.86036592516016</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.68913878695168</v>
+        <v>10.04570879707771</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.34254572913077</v>
+        <v>17.79906841296505</v>
       </c>
       <c r="O16">
-        <v>21.76110053130939</v>
+        <v>19.3365842937821</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.89674971390169</v>
+        <v>16.02961259925851</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.390658884034901</v>
+        <v>3.264188823318869</v>
       </c>
       <c r="E17">
-        <v>18.72134286374875</v>
+        <v>18.84281987596817</v>
       </c>
       <c r="F17">
-        <v>28.24071709453213</v>
+        <v>22.58440346715834</v>
       </c>
       <c r="G17">
-        <v>2.001030087523405</v>
+        <v>3.575507877428389</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.37615826711289</v>
+        <v>21.92205161826044</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.43258218383828</v>
+        <v>9.973046742390181</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.28777144161795</v>
+        <v>17.7925404581161</v>
       </c>
       <c r="O17">
-        <v>21.26517348728923</v>
+        <v>19.25013847282864</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.64748456174608</v>
+        <v>15.94768743403514</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.38247433196821</v>
+        <v>3.2618662808196</v>
       </c>
       <c r="E18">
-        <v>18.60216379211548</v>
+        <v>18.8091105579181</v>
       </c>
       <c r="F18">
-        <v>27.86535154517053</v>
+        <v>22.49533935039992</v>
       </c>
       <c r="G18">
-        <v>2.002705996982796</v>
+        <v>3.576097428766398</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.48654882985258</v>
+        <v>21.95799229749872</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.28286313378572</v>
+        <v>9.931136472332245</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.25661659803454</v>
+        <v>17.78898718902777</v>
       </c>
       <c r="O18">
-        <v>20.97672203321319</v>
+        <v>19.20082243685037</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.5624204534662</v>
+        <v>15.91987796167489</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.379694420893755</v>
+        <v>3.261078529241065</v>
       </c>
       <c r="E19">
-        <v>18.56166099909845</v>
+        <v>18.79769260802052</v>
       </c>
       <c r="F19">
-        <v>27.73755530847428</v>
+        <v>22.46522544892134</v>
       </c>
       <c r="G19">
-        <v>2.003274979328874</v>
+        <v>3.576298449769554</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.52402423909926</v>
+        <v>21.97024041783637</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.231799735095</v>
+        <v>9.916927635546786</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.24612849588599</v>
+        <v>17.78781881571366</v>
       </c>
       <c r="O19">
-        <v>20.87850323297755</v>
+        <v>19.18419606281671</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.94256659322819</v>
+        <v>16.04474073665687</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.392169465094961</v>
+        <v>3.264618014931203</v>
       </c>
       <c r="E20">
-        <v>18.74332799372304</v>
+        <v>18.84905639771413</v>
       </c>
       <c r="F20">
-        <v>28.30985515369204</v>
+        <v>22.60090622566269</v>
       </c>
       <c r="G20">
-        <v>2.000720639483858</v>
+        <v>3.575399433529127</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.35577406974129</v>
+        <v>21.9154374134995</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.46011579512365</v>
+        <v>9.980794168915477</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.29356611880378</v>
+        <v>17.79321454714423</v>
       </c>
       <c r="O20">
-        <v>21.31829693159953</v>
+        <v>19.25929920489032</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.1736501080677</v>
+        <v>16.45894474763094</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.433454644076703</v>
+        <v>3.276411877058107</v>
       </c>
       <c r="E21">
-        <v>19.34286615901176</v>
+        <v>19.02122254807885</v>
       </c>
       <c r="F21">
-        <v>30.18419472826047</v>
+        <v>23.05918945296873</v>
       </c>
       <c r="G21">
-        <v>1.992239753184492</v>
+        <v>3.572476591756045</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.79709717127801</v>
+        <v>21.73680394897557</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.20156891026245</v>
+        <v>10.19388118382743</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.4571076932187</v>
+        <v>17.81374227159118</v>
       </c>
       <c r="O21">
-        <v>22.75788197415834</v>
+        <v>19.51636049183892</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.9441474185259</v>
+        <v>16.72526115159101</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.459946149485973</v>
+        <v>3.284043712680996</v>
       </c>
       <c r="E22">
-        <v>19.72625664268802</v>
+        <v>19.13332993017612</v>
       </c>
       <c r="F22">
-        <v>31.37366467298541</v>
+        <v>23.3599404595392</v>
       </c>
       <c r="G22">
-        <v>1.986764673270567</v>
+        <v>3.570638844657076</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.43657189037881</v>
+        <v>21.62413727006036</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.66722927657367</v>
+        <v>10.33181098158347</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.56703813878636</v>
+        <v>17.82892778755051</v>
       </c>
       <c r="O22">
-        <v>23.67099873751338</v>
+        <v>19.68761640864273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.53601685083668</v>
+        <v>16.58355118595307</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.445853353735447</v>
+        <v>3.279977607971079</v>
       </c>
       <c r="E23">
-        <v>19.52242744073098</v>
+        <v>19.07354083485701</v>
       </c>
       <c r="F23">
-        <v>30.74202624598805</v>
+        <v>23.19934656438044</v>
       </c>
       <c r="G23">
-        <v>1.989681162125023</v>
+        <v>3.571613072987081</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.6285920109099</v>
+        <v>21.6838972734538</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.42041524581831</v>
+        <v>10.25833119239892</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.50809082080867</v>
+        <v>17.82066229128463</v>
       </c>
       <c r="O23">
-        <v>23.18614488715478</v>
+        <v>19.59593386221593</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.92186520019964</v>
+        <v>16.03790275040051</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.391486703976978</v>
+        <v>3.264424005914648</v>
       </c>
       <c r="E24">
-        <v>18.73339145784913</v>
+        <v>18.84623700643336</v>
       </c>
       <c r="F24">
-        <v>28.27861108047945</v>
+        <v>22.59344475152425</v>
       </c>
       <c r="G24">
-        <v>2.000860511192605</v>
+        <v>3.575448434672867</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.36498784300791</v>
+        <v>21.91842621015311</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.44767477092446</v>
+        <v>9.977291977308573</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.29094529909429</v>
+        <v>17.79290916905228</v>
       </c>
       <c r="O24">
-        <v>21.29429022315466</v>
+        <v>19.25515644144503</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.09933099405112</v>
+        <v>15.43332073677889</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.330883129849439</v>
+        <v>3.247338472930773</v>
       </c>
       <c r="E25">
-        <v>17.8485861177139</v>
+        <v>18.59998127413795</v>
       </c>
       <c r="F25">
-        <v>25.54507426987233</v>
+        <v>21.94886467259946</v>
       </c>
       <c r="G25">
-        <v>2.013259248761709</v>
+        <v>3.579898980736789</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.18116954964441</v>
+        <v>22.1890309788004</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.31593623048038</v>
+        <v>9.669864498599303</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.07013106937378</v>
+        <v>17.7706870680472</v>
       </c>
       <c r="O25">
-        <v>19.34507811437555</v>
+        <v>18.90326816083252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.97770889801861</v>
+        <v>16.69095210367884</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.234510661840577</v>
+        <v>2.2847483515384</v>
       </c>
       <c r="E2">
-        <v>18.418478947062</v>
+        <v>17.17149021347224</v>
       </c>
       <c r="F2">
-        <v>21.4860049255458</v>
+        <v>23.56677733643987</v>
       </c>
       <c r="G2">
-        <v>3.583448579622964</v>
+        <v>2.022731996851748</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.40359339487079</v>
+        <v>12.80317497311463</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.441462969642364</v>
+        <v>10.41043837305026</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.76107303827146</v>
+        <v>13.91937747670492</v>
       </c>
       <c r="O2">
-        <v>18.65945141104023</v>
+        <v>17.98058773013836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.66425713582991</v>
+        <v>15.67015555259265</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.225671528957201</v>
+        <v>2.252638603125015</v>
       </c>
       <c r="E3">
-        <v>18.29573303088289</v>
+        <v>16.69877636752275</v>
       </c>
       <c r="F3">
-        <v>21.18169610203237</v>
+        <v>22.17173597633989</v>
       </c>
       <c r="G3">
-        <v>3.586025822461743</v>
+        <v>2.029389153307187</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.55863817489225</v>
+        <v>13.23887901489158</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.286277363253578</v>
+        <v>9.751273157197963</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.75882083674559</v>
+        <v>13.82472235479283</v>
       </c>
       <c r="O3">
-        <v>18.50459139237228</v>
+        <v>17.03102681048635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.47015359799598</v>
+        <v>15.0112713755572</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.220175537588557</v>
+        <v>2.232543553579366</v>
       </c>
       <c r="E4">
-        <v>18.22062115671494</v>
+        <v>16.40254677396283</v>
       </c>
       <c r="F4">
-        <v>21.00015353189779</v>
+        <v>21.29014718220291</v>
       </c>
       <c r="G4">
-        <v>3.587693434609639</v>
+        <v>2.033600745984792</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.6586139566817</v>
+        <v>13.51370540838492</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.191104031185096</v>
+        <v>9.32401206008254</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.75955815525293</v>
+        <v>13.7703470769316</v>
       </c>
       <c r="O4">
-        <v>18.41488877812746</v>
+        <v>16.43736362273616</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.39074683881289</v>
+        <v>14.73482317326793</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.217919092348814</v>
+        <v>2.224265112893263</v>
       </c>
       <c r="E5">
-        <v>18.19009584480417</v>
+        <v>16.28046809785169</v>
       </c>
       <c r="F5">
-        <v>20.92760830132575</v>
+        <v>20.92495395028316</v>
       </c>
       <c r="G5">
-        <v>3.588394489439751</v>
+        <v>2.03534916609759</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.70055981222025</v>
+        <v>13.62757899303069</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.152395473107223</v>
+        <v>9.144230645024848</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.7603943845475</v>
+        <v>13.74913540628648</v>
       </c>
       <c r="O5">
-        <v>18.37972527543774</v>
+        <v>16.19307254479764</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.37754594337595</v>
+        <v>14.68844359133181</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.217543412125485</v>
+        <v>2.222885252623918</v>
       </c>
       <c r="E6">
-        <v>18.18503273818511</v>
+        <v>16.26011908150043</v>
       </c>
       <c r="F6">
-        <v>20.9156517707063</v>
+        <v>20.86396728310622</v>
       </c>
       <c r="G6">
-        <v>3.588512199066686</v>
+        <v>2.035641459631969</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.70759776722486</v>
+        <v>13.64660236832353</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.145973889999345</v>
+        <v>9.114035755248896</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.76056567298603</v>
+        <v>13.74567053974128</v>
       </c>
       <c r="O6">
-        <v>18.37397146024414</v>
+        <v>16.15237513703008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.46908379634478</v>
+        <v>15.00757508301765</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.220145173690677</v>
+        <v>2.232432262241271</v>
       </c>
       <c r="E7">
-        <v>18.22020911859128</v>
+        <v>16.40090570044693</v>
       </c>
       <c r="F7">
-        <v>20.9991692208755</v>
+        <v>21.28524557166197</v>
       </c>
       <c r="G7">
-        <v>3.587702802175928</v>
+        <v>2.033624194329605</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.65917476983053</v>
+        <v>13.51523348098957</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.190581626061244</v>
+        <v>9.321610417080821</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.75956726026499</v>
+        <v>13.77005716940809</v>
       </c>
       <c r="O7">
-        <v>18.41440887105241</v>
+        <v>16.43407817451842</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.87003368076345</v>
+        <v>16.34571138088577</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.231477491279989</v>
+        <v>2.273759139451402</v>
       </c>
       <c r="E8">
-        <v>18.37611497456589</v>
+        <v>17.00982101291458</v>
       </c>
       <c r="F8">
-        <v>21.38003988402463</v>
+        <v>23.09114833724066</v>
       </c>
       <c r="G8">
-        <v>3.584319578044996</v>
+        <v>2.02500222989985</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.45606336459074</v>
+        <v>12.95191692069826</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.387960141112933</v>
+        <v>10.18782973723444</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.75985804914194</v>
+        <v>13.88596698907497</v>
       </c>
       <c r="O8">
-        <v>18.60496213366215</v>
+        <v>17.65555034900164</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.63883325916875</v>
+        <v>18.71111206600473</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.253133444058929</v>
+        <v>2.351544950168</v>
       </c>
       <c r="E9">
-        <v>18.68301148757191</v>
+        <v>18.15086667173107</v>
       </c>
       <c r="F9">
-        <v>22.16444089514406</v>
+        <v>26.43409574380745</v>
       </c>
       <c r="G9">
-        <v>3.578357653563752</v>
+        <v>2.009032579082189</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.0955083830682</v>
+        <v>11.90311072452156</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.773852895700202</v>
+        <v>11.70830567716845</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.77713181660327</v>
+        <v>14.14269397084792</v>
       </c>
       <c r="O9">
-        <v>19.01954607718686</v>
+        <v>19.95600745198197</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.1874098726353</v>
+        <v>20.3715462584515</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.268670719216701</v>
+        <v>2.406404768742837</v>
       </c>
       <c r="E10">
-        <v>18.90805136233534</v>
+        <v>18.95033989436932</v>
       </c>
       <c r="F10">
-        <v>22.75737941665145</v>
+        <v>28.95934172665823</v>
       </c>
       <c r="G10">
-        <v>3.574382897600391</v>
+        <v>1.997801986970748</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.85338950982447</v>
+        <v>11.16350408510257</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.05398316901023</v>
+        <v>12.71812258142144</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.79984051230942</v>
+        <v>14.34884303432951</v>
       </c>
       <c r="O10">
-        <v>19.34650207596431</v>
+        <v>21.81725722312324</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.43235215232298</v>
+        <v>21.09587098124588</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.275652029511948</v>
+        <v>2.430807593559937</v>
       </c>
       <c r="E11">
-        <v>19.01008826231665</v>
+        <v>19.30450200960739</v>
       </c>
       <c r="F11">
-        <v>23.02940969600635</v>
+        <v>30.06482485409678</v>
       </c>
       <c r="G11">
-        <v>3.572661755212656</v>
+        <v>1.992785189892992</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.7481409707198</v>
+        <v>10.83302331988789</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.18014676102371</v>
+        <v>13.15463102089877</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.81230858345413</v>
+        <v>14.44633176491778</v>
       </c>
       <c r="O11">
-        <v>19.49950812572564</v>
+        <v>22.6662293968438</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.52435937335301</v>
+        <v>21.36430384020031</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.278282682416508</v>
+        <v>2.439964508002896</v>
       </c>
       <c r="E12">
-        <v>19.04865819812283</v>
+        <v>19.43717133983665</v>
       </c>
       <c r="F12">
-        <v>23.13264222367547</v>
+        <v>30.47734062674624</v>
       </c>
       <c r="G12">
-        <v>3.572022439296995</v>
+        <v>1.990897182471153</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.70898596785781</v>
+        <v>10.70867263269095</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.22769636332203</v>
+        <v>13.31667737275561</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.81733384409631</v>
+        <v>14.48377214063169</v>
       </c>
       <c r="O12">
-        <v>19.55801028633869</v>
+        <v>22.98294656435885</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.50457848438903</v>
+        <v>21.30675135571984</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.27771671204207</v>
+        <v>2.43799619874683</v>
       </c>
       <c r="E13">
-        <v>19.04035488504346</v>
+        <v>19.40866389641212</v>
       </c>
       <c r="F13">
-        <v>23.11040116895531</v>
+        <v>30.38876741223828</v>
       </c>
       <c r="G13">
-        <v>3.572159575046811</v>
+        <v>1.991303301447443</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.71738760152669</v>
+        <v>10.73541946730376</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.217466417546</v>
+        <v>13.28192168098996</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.81623810731585</v>
+        <v>14.47568556585309</v>
       </c>
       <c r="O13">
-        <v>19.54538664137488</v>
+        <v>22.91494592592686</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.43993707853521</v>
+        <v>21.11807206638288</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.275868718982589</v>
+        <v>2.431562643312422</v>
       </c>
       <c r="E14">
-        <v>19.01326294167049</v>
+        <v>19.31544611693072</v>
       </c>
       <c r="F14">
-        <v>23.03789889972044</v>
+        <v>30.09888439414671</v>
       </c>
       <c r="G14">
-        <v>3.572608909302129</v>
+        <v>1.992629636011724</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.74490564760127</v>
+        <v>10.8227773554822</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.18406346217357</v>
+        <v>13.16802757201696</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.81271594537531</v>
+        <v>14.44940157391823</v>
       </c>
       <c r="O14">
-        <v>19.5043101709747</v>
+        <v>22.69238076610954</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.40024264568098</v>
+        <v>21.00174012756107</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.274735058114351</v>
+        <v>2.427610856502762</v>
       </c>
       <c r="E15">
-        <v>18.99665870619284</v>
+        <v>19.25815748152312</v>
       </c>
       <c r="F15">
-        <v>22.99351466381056</v>
+        <v>29.92053134130981</v>
       </c>
       <c r="G15">
-        <v>3.572885758040941</v>
+        <v>1.993443537263</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.76185235487635</v>
+        <v>10.87638818883855</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.16357252791476</v>
+        <v>13.09784210679839</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.8105979852799</v>
+        <v>14.43336974264017</v>
       </c>
       <c r="O15">
-        <v>19.47922128154671</v>
+        <v>22.55543578944295</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.1713022428781</v>
+        <v>20.32338752716701</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.268212682710304</v>
+        <v>2.404798472171383</v>
       </c>
       <c r="E16">
-        <v>18.90137446841155</v>
+        <v>18.92699622892611</v>
       </c>
       <c r="F16">
-        <v>22.73963840582137</v>
+        <v>28.88623429851775</v>
       </c>
       <c r="G16">
-        <v>3.57449712316859</v>
+        <v>1.99813157411032</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.86036592516016</v>
+        <v>11.18521660481019</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.04570879707771</v>
+        <v>12.68913878695164</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.79906841296505</v>
+        <v>14.34254572913078</v>
       </c>
       <c r="O16">
-        <v>19.3365842937821</v>
+        <v>21.76110053130938</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.02961259925851</v>
+        <v>19.89674971390166</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.264188823318869</v>
+        <v>2.390658884034956</v>
       </c>
       <c r="E17">
-        <v>18.84281987596817</v>
+        <v>18.72134286374873</v>
       </c>
       <c r="F17">
-        <v>22.58440346715834</v>
+        <v>28.24071709453212</v>
       </c>
       <c r="G17">
-        <v>3.575507877428389</v>
+        <v>2.001030087523538</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.92205161826044</v>
+        <v>11.37615826711292</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.973046742390181</v>
+        <v>12.4325821838383</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.7925404581161</v>
+        <v>14.28777144161793</v>
       </c>
       <c r="O17">
-        <v>19.25013847282864</v>
+        <v>21.26517348728921</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.94768743403514</v>
+        <v>19.64748456174606</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.2618662808196</v>
+        <v>2.382474331968334</v>
       </c>
       <c r="E18">
-        <v>18.8091105579181</v>
+        <v>18.60216379211545</v>
       </c>
       <c r="F18">
-        <v>22.49533935039992</v>
+        <v>27.86535154517055</v>
       </c>
       <c r="G18">
-        <v>3.576097428766398</v>
+        <v>2.00270599698293</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.95799229749872</v>
+        <v>11.48654882985264</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.931136472332245</v>
+        <v>12.28286313378575</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.78898718902777</v>
+        <v>14.25661659803453</v>
       </c>
       <c r="O18">
-        <v>19.20082243685037</v>
+        <v>20.97672203321319</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.91987796167489</v>
+        <v>19.56242045346624</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.261078529241065</v>
+        <v>2.379694420893701</v>
       </c>
       <c r="E19">
-        <v>18.79769260802052</v>
+        <v>18.56166099909868</v>
       </c>
       <c r="F19">
-        <v>22.46522544892134</v>
+        <v>27.73755530847429</v>
       </c>
       <c r="G19">
-        <v>3.576298449769554</v>
+        <v>2.003274979328876</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.97024041783637</v>
+        <v>11.52402423909932</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.916927635546786</v>
+        <v>12.23179973509495</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.78781881571366</v>
+        <v>14.24612849588603</v>
       </c>
       <c r="O19">
-        <v>19.18419606281671</v>
+        <v>20.87850323297755</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.04474073665687</v>
+        <v>19.94256659322818</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.264618014931203</v>
+        <v>2.39216946509507</v>
       </c>
       <c r="E20">
-        <v>18.84905639771413</v>
+        <v>18.74332799372308</v>
       </c>
       <c r="F20">
-        <v>22.60090622566269</v>
+        <v>28.30985515369204</v>
       </c>
       <c r="G20">
-        <v>3.575399433529127</v>
+        <v>2.000720639483724</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.9154374134995</v>
+        <v>11.35577406974132</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.980794168915477</v>
+        <v>12.46011579512362</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79321454714423</v>
+        <v>14.2935661188038</v>
       </c>
       <c r="O20">
-        <v>19.25929920489032</v>
+        <v>21.31829693159952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.45894474763094</v>
+        <v>21.17365010806771</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.276411877058107</v>
+        <v>2.433454644076529</v>
       </c>
       <c r="E21">
-        <v>19.02122254807885</v>
+        <v>19.34286615901163</v>
       </c>
       <c r="F21">
-        <v>23.05918945296873</v>
+        <v>30.18419472826042</v>
       </c>
       <c r="G21">
-        <v>3.572476591756045</v>
+        <v>1.992239753184625</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.73680394897557</v>
+        <v>10.79709717127801</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.19388118382743</v>
+        <v>13.20156891026244</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.81374227159118</v>
+        <v>14.45710769321868</v>
       </c>
       <c r="O21">
-        <v>19.51636049183892</v>
+        <v>22.75788197415831</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.72526115159101</v>
+        <v>21.94414741852588</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.284043712680996</v>
+        <v>2.459946149486082</v>
       </c>
       <c r="E22">
-        <v>19.13332993017612</v>
+        <v>19.726256642688</v>
       </c>
       <c r="F22">
-        <v>23.3599404595392</v>
+        <v>31.37366467298546</v>
       </c>
       <c r="G22">
-        <v>3.570638844657076</v>
+        <v>1.986764673270568</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.62413727006036</v>
+        <v>10.43657189037888</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.33181098158347</v>
+        <v>13.6672292765737</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.82892778755051</v>
+        <v>14.56703813878636</v>
       </c>
       <c r="O22">
-        <v>19.68761640864273</v>
+        <v>23.6709987375134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58355118595307</v>
+        <v>21.53601685083665</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.279977607971079</v>
+        <v>2.445853353735495</v>
       </c>
       <c r="E23">
-        <v>19.07354083485701</v>
+        <v>19.52242744073102</v>
       </c>
       <c r="F23">
-        <v>23.19934656438044</v>
+        <v>30.742026245988</v>
       </c>
       <c r="G23">
-        <v>3.571613072987081</v>
+        <v>1.989681162124889</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.6838972734538</v>
+        <v>10.62859201091</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.25833119239892</v>
+        <v>13.4204152458183</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.82066229128463</v>
+        <v>14.50809082080869</v>
       </c>
       <c r="O23">
-        <v>19.59593386221593</v>
+        <v>23.18614488715474</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.03790275040051</v>
+        <v>19.92186520019963</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.264424005914648</v>
+        <v>2.391486703977082</v>
       </c>
       <c r="E24">
-        <v>18.84623700643336</v>
+        <v>18.73339145784911</v>
       </c>
       <c r="F24">
-        <v>22.59344475152425</v>
+        <v>28.27861108047944</v>
       </c>
       <c r="G24">
-        <v>3.575448434672867</v>
+        <v>2.000860511192474</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.91842621015311</v>
+        <v>11.36498784300794</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.977291977308573</v>
+        <v>12.44767477092445</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79290916905228</v>
+        <v>14.29094529909431</v>
       </c>
       <c r="O24">
-        <v>19.25515644144503</v>
+        <v>21.29429022315465</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.43332073677889</v>
+        <v>18.09933099405113</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.247338472930773</v>
+        <v>2.330883129849486</v>
       </c>
       <c r="E25">
-        <v>18.59998127413795</v>
+        <v>17.84858611771378</v>
       </c>
       <c r="F25">
-        <v>21.94886467259946</v>
+        <v>25.54507426987234</v>
       </c>
       <c r="G25">
-        <v>3.579898980736789</v>
+        <v>2.01325924876171</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.1890309788004</v>
+        <v>12.18116954964424</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.669864498599303</v>
+        <v>11.31593623048042</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.7706870680472</v>
+        <v>14.07013106937371</v>
       </c>
       <c r="O25">
-        <v>18.90326816083252</v>
+        <v>19.34507811437557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.69095210367884</v>
+        <v>7.64015364410921</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.2847483515384</v>
+        <v>8.904073674229323</v>
       </c>
       <c r="E2">
-        <v>17.17149021347224</v>
+        <v>12.72840313508646</v>
       </c>
       <c r="F2">
-        <v>23.56677733643987</v>
+        <v>20.53571971998229</v>
       </c>
       <c r="G2">
-        <v>2.022731996851748</v>
+        <v>20.30955960984948</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.924398910777061</v>
       </c>
       <c r="I2">
-        <v>12.80317497311463</v>
+        <v>3.591472165435397</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.443524724132713</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.13385584550485</v>
       </c>
       <c r="L2">
-        <v>10.41043837305026</v>
+        <v>7.330269102016185</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.08049404224945</v>
       </c>
       <c r="N2">
-        <v>13.91937747670492</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.98058773013836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.52570524481404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.67015555259265</v>
+        <v>7.173199892833409</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.252638603125015</v>
+        <v>8.487389003010124</v>
       </c>
       <c r="E3">
-        <v>16.69877636752275</v>
+        <v>12.16397106804184</v>
       </c>
       <c r="F3">
-        <v>22.17173597633989</v>
+        <v>20.15988867832343</v>
       </c>
       <c r="G3">
-        <v>2.029389153307187</v>
+        <v>19.97873481437574</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.712062021361518</v>
       </c>
       <c r="I3">
-        <v>13.23887901489158</v>
+        <v>3.682918294152281</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.485172996402394</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.3238007062234</v>
       </c>
       <c r="L3">
-        <v>9.751273157197963</v>
+        <v>7.133497694774968</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.0386241881071</v>
       </c>
       <c r="N3">
-        <v>13.82472235479283</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.03102681048635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.51136270476591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.0112713755572</v>
+        <v>6.865731553618875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.232543553579366</v>
+        <v>8.222051638442004</v>
       </c>
       <c r="E4">
-        <v>16.40254677396283</v>
+        <v>11.80399522666729</v>
       </c>
       <c r="F4">
-        <v>21.29014718220291</v>
+        <v>19.93458982373191</v>
       </c>
       <c r="G4">
-        <v>2.033600745984792</v>
+        <v>19.78822800789731</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.576850766536097</v>
       </c>
       <c r="I4">
-        <v>13.51370540838492</v>
+        <v>3.741696889594938</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.514207726903141</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.44681826162237</v>
       </c>
       <c r="L4">
-        <v>9.32401206008254</v>
+        <v>7.009271383290451</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.36872412559541</v>
       </c>
       <c r="N4">
-        <v>13.7703470769316</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.43736362273616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.51014349784274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.73482317326793</v>
+        <v>6.723691550393847</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.224265112893263</v>
+        <v>8.113248413105074</v>
       </c>
       <c r="E5">
-        <v>16.28046809785169</v>
+        <v>11.65475328961498</v>
       </c>
       <c r="F5">
-        <v>20.92495395028316</v>
+        <v>19.83814542579925</v>
       </c>
       <c r="G5">
-        <v>2.03534916609759</v>
+        <v>19.70289583837817</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.601609707344994</v>
       </c>
       <c r="I5">
-        <v>13.62757899303069</v>
+        <v>3.768996404222842</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.525087798780302</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.50086989834816</v>
       </c>
       <c r="L5">
-        <v>9.144230645024848</v>
+        <v>6.957682425475718</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.09850459199361</v>
       </c>
       <c r="N5">
-        <v>13.74913540628648</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.19307254479764</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.50701831195306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.68844359133181</v>
+        <v>6.685670590895023</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.222885252623918</v>
+        <v>8.097009674707385</v>
       </c>
       <c r="E6">
-        <v>16.26011908150043</v>
+        <v>11.63063398027501</v>
       </c>
       <c r="F6">
-        <v>20.86396728310622</v>
+        <v>19.814791764661</v>
       </c>
       <c r="G6">
-        <v>2.035641459631969</v>
+        <v>19.67563904433788</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.611285235586244</v>
       </c>
       <c r="I6">
-        <v>13.64660236832353</v>
+        <v>3.776991319469778</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.524750045869038</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.51288852602147</v>
       </c>
       <c r="L6">
-        <v>9.114035755248896</v>
+        <v>6.948890885796891</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.06572196890316</v>
       </c>
       <c r="N6">
-        <v>13.74567053974128</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.15237513703008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.50114528769108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.00757508301765</v>
+        <v>6.82613921580864</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.232432262241271</v>
+        <v>8.225856907079173</v>
       </c>
       <c r="E7">
-        <v>16.40090570044693</v>
+        <v>11.80429316995009</v>
       </c>
       <c r="F7">
-        <v>21.28524557166197</v>
+        <v>19.91316929585539</v>
       </c>
       <c r="G7">
-        <v>2.033624194329605</v>
+        <v>19.75107536221794</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.576070097524249</v>
       </c>
       <c r="I7">
-        <v>13.51523348098957</v>
+        <v>3.751080106041941</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.508376651195327</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.45583364134525</v>
       </c>
       <c r="L7">
-        <v>9.321610417080821</v>
+        <v>7.008104481131892</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.39866901034999</v>
       </c>
       <c r="N7">
-        <v>13.77005716940809</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.43407817451842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.49523000882335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.34571138088577</v>
+        <v>7.437280092785969</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.273759139451402</v>
+        <v>8.768978985131787</v>
       </c>
       <c r="E8">
-        <v>17.00982101291458</v>
+        <v>12.53952622512566</v>
       </c>
       <c r="F8">
-        <v>23.09114833724066</v>
+        <v>20.37924664524239</v>
       </c>
       <c r="G8">
-        <v>2.02500222989985</v>
+        <v>20.14660783853891</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.852170205993383</v>
       </c>
       <c r="I8">
-        <v>12.95191692069826</v>
+        <v>3.633731562899259</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.449327450018563</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.21030950612803</v>
       </c>
       <c r="L8">
-        <v>10.18782973723444</v>
+        <v>7.262559448334136</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>17.7691069514222</v>
       </c>
       <c r="N8">
-        <v>13.88596698907497</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.65555034900164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.49975193146473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.71111206600473</v>
+        <v>8.530763391266698</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.351544950168</v>
+        <v>9.746240318525585</v>
       </c>
       <c r="E9">
-        <v>18.15086667173107</v>
+        <v>13.86651404668467</v>
       </c>
       <c r="F9">
-        <v>26.43409574380745</v>
+        <v>21.36812733777244</v>
       </c>
       <c r="G9">
-        <v>2.009032579082189</v>
+        <v>21.0846260365164</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.356009246847062</v>
       </c>
       <c r="I9">
-        <v>11.90311072452156</v>
+        <v>3.409694102441858</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.372872418028471</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.76418845882381</v>
       </c>
       <c r="L9">
-        <v>11.70830567716845</v>
+        <v>7.733867543063957</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>20.15874426488252</v>
       </c>
       <c r="N9">
-        <v>14.14269397084792</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>19.95600745198197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.59802449624931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.3715462584515</v>
+        <v>9.234605676710913</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.406404768742837</v>
+        <v>10.31879118488606</v>
       </c>
       <c r="E10">
-        <v>18.95033989436932</v>
+        <v>14.54191285606952</v>
       </c>
       <c r="F10">
-        <v>28.95934172665823</v>
+        <v>21.9414099367077</v>
       </c>
       <c r="G10">
-        <v>1.997801986970748</v>
+        <v>21.63845487091009</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.690043206753481</v>
       </c>
       <c r="I10">
-        <v>11.16350408510257</v>
+        <v>3.263728752250746</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.30463565172834</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.49210317361328</v>
       </c>
       <c r="L10">
-        <v>12.71812258142144</v>
+        <v>7.953685495471212</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>21.75688920013893</v>
       </c>
       <c r="N10">
-        <v>14.34884303432951</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>21.81725722312324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.63138733231909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.09587098124588</v>
+        <v>9.629519754398498</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.430807593559937</v>
+        <v>9.75869690355985</v>
       </c>
       <c r="E11">
-        <v>19.30450200960739</v>
+        <v>12.91298378634818</v>
       </c>
       <c r="F11">
-        <v>30.06482485409678</v>
+        <v>20.75443982829717</v>
       </c>
       <c r="G11">
-        <v>1.992785189892992</v>
+        <v>20.29567558394029</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.38596479178225</v>
       </c>
       <c r="I11">
-        <v>10.83302331988789</v>
+        <v>3.227301812583901</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.020575798160397</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.55424135855602</v>
       </c>
       <c r="L11">
-        <v>13.15463102089877</v>
+        <v>7.178999715369276</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>22.32688233277336</v>
       </c>
       <c r="N11">
-        <v>14.44633176491778</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>22.6662293968438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.98809742939106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.36430384020031</v>
+        <v>9.868580061149924</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.439964508002896</v>
+        <v>9.155515545612907</v>
       </c>
       <c r="E12">
-        <v>19.43717133983665</v>
+        <v>11.43738363743907</v>
       </c>
       <c r="F12">
-        <v>30.47734062674624</v>
+        <v>19.64503252262359</v>
       </c>
       <c r="G12">
-        <v>1.990897182471153</v>
+        <v>19.0701757218302</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.500090163315341</v>
       </c>
       <c r="I12">
-        <v>10.70867263269095</v>
+        <v>3.21071240312935</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.802275960003614</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.6641121552767</v>
       </c>
       <c r="L12">
-        <v>13.31667737275561</v>
+        <v>6.565133822895216</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>22.43986197927515</v>
       </c>
       <c r="N12">
-        <v>14.48377214063169</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>22.98294656435885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.45289700768286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.30675135571984</v>
+        <v>9.96589359748193</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.43799619874683</v>
+        <v>8.474835996354177</v>
       </c>
       <c r="E13">
-        <v>19.40866389641212</v>
+        <v>9.988474469891798</v>
       </c>
       <c r="F13">
-        <v>30.38876741223828</v>
+        <v>18.48902381945112</v>
       </c>
       <c r="G13">
-        <v>1.991303301447443</v>
+        <v>17.79320755638405</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.734485607856247</v>
       </c>
       <c r="I13">
-        <v>10.73541946730376</v>
+        <v>3.222070818985737</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.613322477312083</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.8269701945632</v>
       </c>
       <c r="L13">
-        <v>13.28192168098996</v>
+        <v>6.057042941740843</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>22.2522944975733</v>
       </c>
       <c r="N13">
-        <v>14.47568556585309</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>22.91494592592686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.94646573577747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.11807206638288</v>
+        <v>9.963053465888748</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.431562643312422</v>
+        <v>7.958547057099757</v>
       </c>
       <c r="E14">
-        <v>19.31544611693072</v>
+        <v>9.01214430853236</v>
       </c>
       <c r="F14">
-        <v>30.09888439414671</v>
+        <v>17.65458686272632</v>
       </c>
       <c r="G14">
-        <v>1.992629636011724</v>
+        <v>16.86594609523643</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.64026665901796</v>
       </c>
       <c r="I14">
-        <v>10.8227773554822</v>
+        <v>3.24540357318098</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.494736203682859</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.97031238390589</v>
       </c>
       <c r="L14">
-        <v>13.16802757201696</v>
+        <v>5.781037100626407</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>21.99053272732772</v>
       </c>
       <c r="N14">
-        <v>14.44940157391823</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>22.69238076610954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.60521251623924</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.00174012756107</v>
+        <v>9.920147587885278</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.427610856502762</v>
+        <v>7.81707798235837</v>
       </c>
       <c r="E15">
-        <v>19.25815748152312</v>
+        <v>8.776117781424672</v>
       </c>
       <c r="F15">
-        <v>29.92053134130981</v>
+        <v>17.43752034563945</v>
       </c>
       <c r="G15">
-        <v>1.993443537263</v>
+        <v>16.62100178541989</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.846859164070255</v>
       </c>
       <c r="I15">
-        <v>10.87638818883855</v>
+        <v>3.261225500227437</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.470821865133765</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.02150743252083</v>
       </c>
       <c r="L15">
-        <v>13.09784210679839</v>
+        <v>5.725030029877402</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>21.8721182067597</v>
       </c>
       <c r="N15">
-        <v>14.43336974264017</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>22.55543578944295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.52525891012914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.32338752716701</v>
+        <v>9.603851339917904</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.404798472171383</v>
+        <v>7.678314810575396</v>
       </c>
       <c r="E16">
-        <v>18.92699622892611</v>
+        <v>8.714667590109132</v>
       </c>
       <c r="F16">
-        <v>28.88623429851775</v>
+        <v>17.39058600978285</v>
       </c>
       <c r="G16">
-        <v>1.99813157411032</v>
+        <v>16.58433825133813</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.574967507538523</v>
       </c>
       <c r="I16">
-        <v>11.18521660481019</v>
+        <v>3.326341554067496</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.536701856624021</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.09013145346743</v>
       </c>
       <c r="L16">
-        <v>12.68913878695164</v>
+        <v>5.720302222930245</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>21.26012646390449</v>
       </c>
       <c r="N16">
-        <v>14.34254572913078</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>21.76110053130938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.60505715792164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.89674971390166</v>
+        <v>9.355081562937558</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.390658884034956</v>
+        <v>7.855526528152863</v>
       </c>
       <c r="E17">
-        <v>18.72134286374873</v>
+        <v>9.181906508945897</v>
       </c>
       <c r="F17">
-        <v>28.24071709453212</v>
+        <v>17.80229256058434</v>
       </c>
       <c r="G17">
-        <v>2.001030087523538</v>
+        <v>17.05673171049178</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.835746436118391</v>
       </c>
       <c r="I17">
-        <v>11.37615826711292</v>
+        <v>3.364639706547956</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.649268287089648</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.07014047902605</v>
       </c>
       <c r="L17">
-        <v>12.4325821838383</v>
+        <v>5.848585647400713</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>20.92807284781218</v>
       </c>
       <c r="N17">
-        <v>14.28777144161793</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>21.26517348728921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.84603355965154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.64748456174606</v>
+        <v>9.167887094742301</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.382474331968334</v>
+        <v>8.325148827443913</v>
       </c>
       <c r="E18">
-        <v>18.60216379211545</v>
+        <v>10.23467961266646</v>
       </c>
       <c r="F18">
-        <v>27.86535154517055</v>
+        <v>18.67053528405507</v>
       </c>
       <c r="G18">
-        <v>2.00270599698293</v>
+        <v>18.03995923578958</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.657092443804133</v>
       </c>
       <c r="I18">
-        <v>11.48654882985264</v>
+        <v>3.374203227293207</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.819499960829337</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.96296480188239</v>
       </c>
       <c r="L18">
-        <v>12.28286313378575</v>
+        <v>6.186109708007695</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>20.78398813959149</v>
       </c>
       <c r="N18">
-        <v>14.25661659803453</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>20.97672203321319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.26390592740046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.56242045346624</v>
+        <v>8.992229288266124</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.379694420893701</v>
+        <v>9.000638264643573</v>
       </c>
       <c r="E19">
-        <v>18.56166099909868</v>
+        <v>11.7547817965092</v>
       </c>
       <c r="F19">
-        <v>27.73755530847429</v>
+        <v>19.81487065710655</v>
       </c>
       <c r="G19">
-        <v>2.003274979328876</v>
+        <v>19.30166508900019</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.387493439393551</v>
       </c>
       <c r="I19">
-        <v>11.52402423909932</v>
+        <v>3.37753175518189</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.016845715063218</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.84020210506545</v>
       </c>
       <c r="L19">
-        <v>12.23179973509495</v>
+        <v>6.762982227378285</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>20.85578878209224</v>
       </c>
       <c r="N19">
-        <v>14.24612849588603</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>20.87850323297755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.77494250966295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.94256659322818</v>
+        <v>8.96625187244152</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.39216946509507</v>
+        <v>10.18043378001865</v>
       </c>
       <c r="E20">
-        <v>18.74332799372308</v>
+        <v>14.36369623196581</v>
       </c>
       <c r="F20">
-        <v>28.30985515369204</v>
+        <v>21.72640746150698</v>
       </c>
       <c r="G20">
-        <v>2.000720639483724</v>
+        <v>21.38095238137888</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.601950000370479</v>
       </c>
       <c r="I20">
-        <v>11.35577406974132</v>
+        <v>3.329689629954082</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.302047761736272</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.60011461198943</v>
       </c>
       <c r="L20">
-        <v>12.46011579512362</v>
+        <v>7.890842766368262</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>21.43022325424248</v>
       </c>
       <c r="N20">
-        <v>14.2935661188038</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>21.31829693159952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.57265967924443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.17365010806771</v>
+        <v>9.473762649870649</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.433454644076529</v>
+        <v>10.74701267612665</v>
       </c>
       <c r="E21">
-        <v>19.34286615901163</v>
+        <v>15.21132402981906</v>
       </c>
       <c r="F21">
-        <v>30.18419472826042</v>
+        <v>22.44131027401196</v>
       </c>
       <c r="G21">
-        <v>1.992239753184625</v>
+        <v>22.12915849874376</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.875242287533713</v>
       </c>
       <c r="I21">
-        <v>10.79709717127801</v>
+        <v>3.213405821409653</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.30477746960643</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.37432003564794</v>
       </c>
       <c r="L21">
-        <v>13.20156891026244</v>
+        <v>8.220040814551867</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>22.61584024336557</v>
       </c>
       <c r="N21">
-        <v>14.45710769321868</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>22.75788197415831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.73849215038705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.94414741852588</v>
+        <v>9.829889697937693</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.459946149486082</v>
+        <v>11.05278121394031</v>
       </c>
       <c r="E22">
-        <v>19.726256642688</v>
+        <v>15.63121813146789</v>
       </c>
       <c r="F22">
-        <v>31.37366467298546</v>
+        <v>22.84833316355702</v>
       </c>
       <c r="G22">
-        <v>1.986764673270568</v>
+        <v>22.57516626617084</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.041997124395766</v>
       </c>
       <c r="I22">
-        <v>10.43657189037888</v>
+        <v>3.128719488893366</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.303474500531498</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.22449300087318</v>
       </c>
       <c r="L22">
-        <v>13.6672292765737</v>
+        <v>8.376675626479189</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>23.32102065733365</v>
       </c>
       <c r="N22">
-        <v>14.56703813878636</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>23.6709987375134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.83538689841313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.53601685083665</v>
+        <v>9.673856830263135</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.445853353735495</v>
+        <v>10.8857794353143</v>
       </c>
       <c r="E23">
-        <v>19.52242744073102</v>
+        <v>15.40625465880318</v>
       </c>
       <c r="F23">
-        <v>30.742026245988</v>
+        <v>22.65108925825355</v>
       </c>
       <c r="G23">
-        <v>1.989681162124889</v>
+        <v>22.37227781842884</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.953260227555606</v>
       </c>
       <c r="I23">
-        <v>10.62859201091</v>
+        <v>3.162738443369409</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.310494782121157</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.28826852176864</v>
       </c>
       <c r="L23">
-        <v>13.4204152458183</v>
+        <v>8.29386063867034</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>22.9173660953984</v>
       </c>
       <c r="N23">
-        <v>14.50809082080869</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>23.18614488715474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.799044241916</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.92186520019963</v>
+        <v>8.997445290257026</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.391486703977082</v>
+        <v>10.23973058033167</v>
       </c>
       <c r="E24">
-        <v>18.73339145784911</v>
+        <v>14.52912395398229</v>
       </c>
       <c r="F24">
-        <v>28.27861108047944</v>
+        <v>21.8785368706972</v>
       </c>
       <c r="G24">
-        <v>2.000860511192474</v>
+        <v>21.57037514809022</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.610061748365734</v>
       </c>
       <c r="I24">
-        <v>11.36498784300794</v>
+        <v>3.313116500034496</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.335153565189565</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.56922670564016</v>
       </c>
       <c r="L24">
-        <v>12.44767477092445</v>
+        <v>7.971841906975678</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>21.37737865777234</v>
       </c>
       <c r="N24">
-        <v>14.29094529909431</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>21.29429022315465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.65460664431512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.09933099405113</v>
+        <v>8.195618022346409</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.330883129849486</v>
+        <v>9.499056892473771</v>
       </c>
       <c r="E25">
-        <v>17.84858611771378</v>
+        <v>13.52365144054463</v>
       </c>
       <c r="F25">
-        <v>25.54507426987234</v>
+        <v>21.06308197552348</v>
       </c>
       <c r="G25">
-        <v>2.01325924876171</v>
+        <v>20.75979091194913</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.223652071718482</v>
       </c>
       <c r="I25">
-        <v>12.18116954964424</v>
+        <v>3.483873296729768</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.379743673504992</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.89868193071429</v>
       </c>
       <c r="L25">
-        <v>11.31593623048042</v>
+        <v>7.608854651524951</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.59067629775573</v>
       </c>
       <c r="N25">
-        <v>14.07013106937371</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>19.34507811437557</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.53831390975968</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.64015364410921</v>
+        <v>8.206246832453955</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.904073674229323</v>
+        <v>8.848735622685593</v>
       </c>
       <c r="E2">
-        <v>12.72840313508646</v>
+        <v>12.70421967783498</v>
       </c>
       <c r="F2">
-        <v>20.53571971998229</v>
+        <v>20.75629152605599</v>
       </c>
       <c r="G2">
-        <v>20.30955960984948</v>
+        <v>20.04374643149664</v>
       </c>
       <c r="H2">
-        <v>1.924398910777061</v>
+        <v>1.92482496418687</v>
       </c>
       <c r="I2">
-        <v>3.591472165435397</v>
+        <v>3.297745555414131</v>
       </c>
       <c r="J2">
-        <v>8.443524724132713</v>
+        <v>9.010116155439025</v>
       </c>
       <c r="K2">
-        <v>14.13385584550485</v>
+        <v>13.4203114185231</v>
       </c>
       <c r="L2">
-        <v>7.330269102016185</v>
+        <v>10.60505274265466</v>
       </c>
       <c r="M2">
-        <v>18.08049404224945</v>
+        <v>9.177819571255807</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.335478394085337</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>17.62723764612988</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.52570524481404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.69259628856307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.173199892833409</v>
+        <v>7.781276420267834</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.487389003010124</v>
+        <v>8.432658746588654</v>
       </c>
       <c r="E3">
-        <v>12.16397106804184</v>
+        <v>12.14277253541356</v>
       </c>
       <c r="F3">
-        <v>20.15988867832343</v>
+        <v>20.37599497972562</v>
       </c>
       <c r="G3">
-        <v>19.97873481437574</v>
+        <v>19.71057111652106</v>
       </c>
       <c r="H3">
-        <v>1.712062021361518</v>
+        <v>1.716407155626152</v>
       </c>
       <c r="I3">
-        <v>3.682918294152281</v>
+        <v>3.373568876275664</v>
       </c>
       <c r="J3">
-        <v>8.485172996402394</v>
+        <v>9.015263310990491</v>
       </c>
       <c r="K3">
-        <v>14.3238007062234</v>
+        <v>13.58804906037486</v>
       </c>
       <c r="L3">
-        <v>7.133497694774968</v>
+        <v>10.68798033701458</v>
       </c>
       <c r="M3">
-        <v>17.0386241881071</v>
+        <v>9.402932270814942</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.14063302612319</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>16.56205846599228</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.51136270476591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.66916118717999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.865731553618875</v>
+        <v>7.50202280015045</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.222051638442004</v>
+        <v>8.167863288426894</v>
       </c>
       <c r="E4">
-        <v>11.80399522666729</v>
+        <v>11.78483344097835</v>
       </c>
       <c r="F4">
-        <v>19.93458982373191</v>
+        <v>20.14675376545067</v>
       </c>
       <c r="G4">
-        <v>19.78822800789731</v>
+        <v>19.52024521258923</v>
       </c>
       <c r="H4">
-        <v>1.576850766536097</v>
+        <v>1.583670373045261</v>
       </c>
       <c r="I4">
-        <v>3.741696889594938</v>
+        <v>3.422643704783682</v>
       </c>
       <c r="J4">
-        <v>8.514207726903141</v>
+        <v>9.020073581364322</v>
       </c>
       <c r="K4">
-        <v>14.44681826162237</v>
+        <v>13.69742240617435</v>
       </c>
       <c r="L4">
-        <v>7.009271383290451</v>
+        <v>10.75604993440262</v>
       </c>
       <c r="M4">
-        <v>16.36872412559541</v>
+        <v>9.548003521789182</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.017644866365874</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.87662234478423</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.51014349784274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.66139141774606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.723691550393847</v>
+        <v>7.37398718024256</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.113248413105074</v>
+        <v>8.059133568837682</v>
       </c>
       <c r="E5">
-        <v>11.65475328961498</v>
+        <v>11.63638702817666</v>
       </c>
       <c r="F5">
-        <v>19.83814542579925</v>
+        <v>20.04907623959212</v>
       </c>
       <c r="G5">
-        <v>19.70289583837817</v>
+        <v>19.43632328657322</v>
       </c>
       <c r="H5">
-        <v>1.601609707344994</v>
+        <v>1.593575889983949</v>
       </c>
       <c r="I5">
-        <v>3.768996404222842</v>
+        <v>3.44645065667609</v>
       </c>
       <c r="J5">
-        <v>8.525087798780302</v>
+        <v>9.020866980171283</v>
       </c>
       <c r="K5">
-        <v>14.50086989834816</v>
+        <v>13.74447982913267</v>
       </c>
       <c r="L5">
-        <v>6.957682425475718</v>
+        <v>10.78585484176946</v>
       </c>
       <c r="M5">
-        <v>16.09850459199361</v>
+        <v>9.61244083443936</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.966587872184952</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.59859522059079</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.50701831195306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.6558271087214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.685670590895023</v>
+        <v>7.340650486802963</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.097009674707385</v>
+        <v>8.04266937377859</v>
       </c>
       <c r="E6">
-        <v>11.63063398027501</v>
+        <v>11.61229322350234</v>
       </c>
       <c r="F6">
-        <v>19.814791764661</v>
+        <v>20.02633259634982</v>
       </c>
       <c r="G6">
-        <v>19.67563904433788</v>
+        <v>19.41050239378973</v>
       </c>
       <c r="H6">
-        <v>1.611285235586244</v>
+        <v>1.603084128927242</v>
       </c>
       <c r="I6">
-        <v>3.776991319469778</v>
+        <v>3.454512244106354</v>
       </c>
       <c r="J6">
-        <v>8.524750045869038</v>
+        <v>9.019101777271597</v>
       </c>
       <c r="K6">
-        <v>14.51288852602147</v>
+        <v>13.75358289034069</v>
       </c>
       <c r="L6">
-        <v>6.948890885796891</v>
+        <v>10.78851066024956</v>
       </c>
       <c r="M6">
-        <v>16.06572196890316</v>
+        <v>9.62764157342926</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.957902055192582</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.56304676202068</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.50114528769108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.65010759023833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.82613921580864</v>
+        <v>7.472611781148189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.225856907079173</v>
+        <v>8.174720044354553</v>
       </c>
       <c r="E7">
-        <v>11.80429316995009</v>
+        <v>11.78607617849455</v>
       </c>
       <c r="F7">
-        <v>19.91316929585539</v>
+        <v>20.11298295950926</v>
       </c>
       <c r="G7">
-        <v>19.75107536221794</v>
+        <v>19.56803695256722</v>
       </c>
       <c r="H7">
-        <v>1.576070097524249</v>
+        <v>1.582305360265819</v>
       </c>
       <c r="I7">
-        <v>3.751080106041941</v>
+        <v>3.433830721057126</v>
       </c>
       <c r="J7">
-        <v>8.508376651195327</v>
+        <v>8.979305519565761</v>
       </c>
       <c r="K7">
-        <v>14.45583364134525</v>
+        <v>13.70211153315799</v>
       </c>
       <c r="L7">
-        <v>7.008104481131892</v>
+        <v>10.74978661853926</v>
       </c>
       <c r="M7">
-        <v>16.39866901034999</v>
+        <v>9.561855108130645</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.015898141024078</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.89837322350279</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.49523000882335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.63767060886999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.437280092785969</v>
+        <v>8.036583558999435</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.768978985131787</v>
+        <v>8.724664732512078</v>
       </c>
       <c r="E8">
-        <v>12.53952622512566</v>
+        <v>12.519927343207</v>
       </c>
       <c r="F8">
-        <v>20.37924664524239</v>
+        <v>20.55412337572636</v>
       </c>
       <c r="G8">
-        <v>20.14660783853891</v>
+        <v>20.15129370314671</v>
       </c>
       <c r="H8">
-        <v>1.852170205993383</v>
+        <v>1.852127064491145</v>
       </c>
       <c r="I8">
-        <v>3.633731562899259</v>
+        <v>3.337260315159132</v>
       </c>
       <c r="J8">
-        <v>8.449327450018563</v>
+        <v>8.88843535713036</v>
       </c>
       <c r="K8">
-        <v>14.21030950612803</v>
+        <v>13.48571065702454</v>
       </c>
       <c r="L8">
-        <v>7.262559448334136</v>
+        <v>10.62648626716198</v>
       </c>
       <c r="M8">
-        <v>17.7691069514222</v>
+        <v>9.271644131201079</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.266508495633171</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>17.29029088267616</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.49975193146473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.63167223569592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.530763391266698</v>
+        <v>9.033425474291509</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.746240318525585</v>
+        <v>9.70373394662936</v>
       </c>
       <c r="E9">
-        <v>13.86651404668467</v>
+        <v>13.8415520466231</v>
       </c>
       <c r="F9">
-        <v>21.36812733777244</v>
+        <v>21.53481737279455</v>
       </c>
       <c r="G9">
-        <v>21.0846260365164</v>
+        <v>21.1611871403323</v>
       </c>
       <c r="H9">
-        <v>2.356009246847062</v>
+        <v>2.346290828847923</v>
       </c>
       <c r="I9">
-        <v>3.409694102441858</v>
+        <v>3.149856619751213</v>
       </c>
       <c r="J9">
-        <v>8.372872418028471</v>
+        <v>8.859339553129058</v>
       </c>
       <c r="K9">
-        <v>13.76418845882381</v>
+        <v>13.10255969333646</v>
       </c>
       <c r="L9">
-        <v>7.733867543063957</v>
+        <v>10.52938808948411</v>
       </c>
       <c r="M9">
-        <v>20.15874426488252</v>
+        <v>8.733169608521287</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.732955793757182</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>19.73347282859998</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.59802449624931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.73635201213335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.234605676710913</v>
+        <v>9.704341943081337</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.31879118488606</v>
+        <v>10.29433364341478</v>
       </c>
       <c r="E10">
-        <v>14.54191285606952</v>
+        <v>14.51935186835284</v>
       </c>
       <c r="F10">
-        <v>21.9414099367077</v>
+        <v>22.02543276446523</v>
       </c>
       <c r="G10">
-        <v>21.63845487091009</v>
+        <v>22.21717142448431</v>
       </c>
       <c r="H10">
-        <v>2.690043206753481</v>
+        <v>2.671018349601862</v>
       </c>
       <c r="I10">
-        <v>3.263728752250746</v>
+        <v>3.031877434367414</v>
       </c>
       <c r="J10">
-        <v>8.30463565172834</v>
+        <v>8.623301148137642</v>
       </c>
       <c r="K10">
-        <v>13.49210317361328</v>
+        <v>12.87810410683253</v>
       </c>
       <c r="L10">
-        <v>7.953685495471212</v>
+        <v>10.5651965558619</v>
       </c>
       <c r="M10">
-        <v>21.75688920013893</v>
+        <v>8.385368656431043</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.946610875918713</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>21.33747594042338</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.63138733231909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.71465612332341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.629519754398498</v>
+        <v>10.17843184606859</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.75869690355985</v>
+        <v>9.762729461719053</v>
       </c>
       <c r="E11">
-        <v>12.91298378634818</v>
+        <v>12.8966440818412</v>
       </c>
       <c r="F11">
-        <v>20.75443982829717</v>
+        <v>20.71071304576567</v>
       </c>
       <c r="G11">
-        <v>20.29567558394029</v>
+        <v>21.87911239001614</v>
       </c>
       <c r="H11">
-        <v>3.38596479178225</v>
+        <v>3.364982667688081</v>
       </c>
       <c r="I11">
-        <v>3.227301812583901</v>
+        <v>3.010217181233242</v>
       </c>
       <c r="J11">
-        <v>8.020575798160397</v>
+        <v>8.017175179237993</v>
       </c>
       <c r="K11">
-        <v>13.55424135855602</v>
+        <v>12.9296425711873</v>
       </c>
       <c r="L11">
-        <v>7.178999715369276</v>
+        <v>10.72334091571132</v>
       </c>
       <c r="M11">
-        <v>22.32688233277336</v>
+        <v>8.334611724456231</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.164995664126068</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>21.81985718570639</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.98809742939106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.97793621687574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.868580061149924</v>
+        <v>10.47364950251546</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.155515545612907</v>
+        <v>9.169279972379689</v>
       </c>
       <c r="E12">
-        <v>11.43738363743907</v>
+        <v>11.42079066386564</v>
       </c>
       <c r="F12">
-        <v>19.64503252262359</v>
+        <v>19.55790582670499</v>
       </c>
       <c r="G12">
-        <v>19.0701757218302</v>
+        <v>21.11606369145545</v>
       </c>
       <c r="H12">
-        <v>4.500090163315341</v>
+        <v>4.48289203025575</v>
       </c>
       <c r="I12">
-        <v>3.21071240312935</v>
+        <v>2.996857313948492</v>
       </c>
       <c r="J12">
-        <v>7.802275960003614</v>
+        <v>7.714539555214701</v>
       </c>
       <c r="K12">
-        <v>13.6641121552767</v>
+        <v>13.01647060476286</v>
       </c>
       <c r="L12">
-        <v>6.565133822895216</v>
+        <v>10.84371434926852</v>
       </c>
       <c r="M12">
-        <v>22.43986197927515</v>
+        <v>8.359404353409261</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.548425872676446</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>21.87359736537194</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.45289700768286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.41256221163841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.96589359748193</v>
+        <v>10.61209586346223</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.474835996354177</v>
+        <v>8.476784881130614</v>
       </c>
       <c r="E13">
-        <v>9.988474469891798</v>
+        <v>9.964833149947776</v>
       </c>
       <c r="F13">
-        <v>18.48902381945112</v>
+        <v>18.45301358844064</v>
       </c>
       <c r="G13">
-        <v>17.79320755638405</v>
+        <v>19.72071780587426</v>
       </c>
       <c r="H13">
-        <v>5.734485607856247</v>
+        <v>5.721904579499591</v>
       </c>
       <c r="I13">
-        <v>3.222070818985737</v>
+        <v>3.005467980623748</v>
       </c>
       <c r="J13">
-        <v>7.613322477312083</v>
+        <v>7.62646353500774</v>
       </c>
       <c r="K13">
-        <v>13.8269701945632</v>
+        <v>13.13016813552598</v>
       </c>
       <c r="L13">
-        <v>6.057042941740843</v>
+        <v>10.92499911244019</v>
       </c>
       <c r="M13">
-        <v>22.2522944975733</v>
+        <v>8.450509184875363</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.04149037698842</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>21.64690967105354</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.94646573577747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.94565829289476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.963053465888748</v>
+        <v>10.63298616812836</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.958547057099757</v>
+        <v>7.94308740898434</v>
       </c>
       <c r="E14">
-        <v>9.01214430853236</v>
+        <v>8.981852709587207</v>
       </c>
       <c r="F14">
-        <v>17.65458686272632</v>
+        <v>17.6930235271194</v>
       </c>
       <c r="G14">
-        <v>16.86594609523643</v>
+        <v>18.45592485989736</v>
       </c>
       <c r="H14">
-        <v>6.64026665901796</v>
+        <v>6.63064349428804</v>
       </c>
       <c r="I14">
-        <v>3.24540357318098</v>
+        <v>3.024802174282413</v>
       </c>
       <c r="J14">
-        <v>7.494736203682859</v>
+        <v>7.641277987130487</v>
       </c>
       <c r="K14">
-        <v>13.97031238390589</v>
+        <v>13.22380218955441</v>
       </c>
       <c r="L14">
-        <v>5.781037100626407</v>
+        <v>10.96345349218182</v>
       </c>
       <c r="M14">
-        <v>21.99053272732772</v>
+        <v>8.54859854910846</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.767643378945721</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>21.36508154948652</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.60521251623924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.65907257554601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.920147587885278</v>
+        <v>10.59490877409252</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.81707798235837</v>
+        <v>7.793457315946404</v>
       </c>
       <c r="E15">
-        <v>8.776117781424672</v>
+        <v>8.74375644024358</v>
       </c>
       <c r="F15">
-        <v>17.43752034563945</v>
+        <v>17.51067158762248</v>
       </c>
       <c r="G15">
-        <v>16.62100178541989</v>
+        <v>18.02324083047952</v>
       </c>
       <c r="H15">
-        <v>6.846859164070255</v>
+        <v>6.838146059641595</v>
       </c>
       <c r="I15">
-        <v>3.261225500227437</v>
+        <v>3.039219967219616</v>
       </c>
       <c r="J15">
-        <v>7.470821865133765</v>
+        <v>7.677138333026905</v>
       </c>
       <c r="K15">
-        <v>14.02150743252083</v>
+        <v>13.25590215130258</v>
       </c>
       <c r="L15">
-        <v>5.725030029877402</v>
+        <v>10.96633785817077</v>
       </c>
       <c r="M15">
-        <v>21.8721182067597</v>
+        <v>8.590704555452687</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.712720643029381</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>21.2441738568851</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.52525891012914</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.60397653711208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.603851339917904</v>
+        <v>10.26021656064135</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.678314810575396</v>
+        <v>7.6238247195222</v>
       </c>
       <c r="E16">
-        <v>8.714667590109132</v>
+        <v>8.678438067675994</v>
       </c>
       <c r="F16">
-        <v>17.39058600978285</v>
+        <v>17.59547554017162</v>
       </c>
       <c r="G16">
-        <v>16.58433825133813</v>
+        <v>17.12320707790982</v>
       </c>
       <c r="H16">
-        <v>6.574967507538523</v>
+        <v>6.568989108109053</v>
       </c>
       <c r="I16">
-        <v>3.326341554067496</v>
+        <v>3.09319261516312</v>
       </c>
       <c r="J16">
-        <v>7.536701856624021</v>
+        <v>7.989726914085518</v>
       </c>
       <c r="K16">
-        <v>14.09013145346743</v>
+        <v>13.28656811842859</v>
       </c>
       <c r="L16">
-        <v>5.720302222930245</v>
+        <v>10.86581416632604</v>
       </c>
       <c r="M16">
-        <v>21.26012646390449</v>
+        <v>8.715502566573811</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.713313721519754</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>20.66220619583887</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.60505715792164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.77562643416095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.355081562937558</v>
+        <v>9.989502236598341</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.855526528152863</v>
+        <v>7.790370364294051</v>
       </c>
       <c r="E17">
-        <v>9.181906508945897</v>
+        <v>9.1450582808964</v>
       </c>
       <c r="F17">
-        <v>17.80229256058434</v>
+        <v>18.05370726121811</v>
       </c>
       <c r="G17">
-        <v>17.05673171049178</v>
+        <v>17.23174040173163</v>
       </c>
       <c r="H17">
-        <v>5.835746436118391</v>
+        <v>5.830642253894935</v>
       </c>
       <c r="I17">
-        <v>3.364639706547956</v>
+        <v>3.125296575610666</v>
       </c>
       <c r="J17">
-        <v>7.649268287089648</v>
+        <v>8.208801109433105</v>
       </c>
       <c r="K17">
-        <v>14.07014047902605</v>
+        <v>13.27090461535681</v>
       </c>
       <c r="L17">
-        <v>5.848585647400713</v>
+        <v>10.78334742145693</v>
       </c>
       <c r="M17">
-        <v>20.92807284781218</v>
+        <v>8.761935255477317</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.844617831712546</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>20.35945436105809</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.84603355965154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.04839538481084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.167887094742301</v>
+        <v>9.763923549690231</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.325148827443913</v>
+        <v>8.259538383527678</v>
       </c>
       <c r="E18">
-        <v>10.23467961266646</v>
+        <v>10.19857864607815</v>
       </c>
       <c r="F18">
-        <v>18.67053528405507</v>
+        <v>18.9269811612497</v>
       </c>
       <c r="G18">
-        <v>18.03995923578958</v>
+        <v>18.05708018407959</v>
       </c>
       <c r="H18">
-        <v>4.657092443804133</v>
+        <v>4.651529323063352</v>
       </c>
       <c r="I18">
-        <v>3.374203227293207</v>
+        <v>3.130188064634287</v>
       </c>
       <c r="J18">
-        <v>7.819499960829337</v>
+        <v>8.418029452476414</v>
       </c>
       <c r="K18">
-        <v>13.96296480188239</v>
+        <v>13.20086869819589</v>
       </c>
       <c r="L18">
-        <v>6.186109708007695</v>
+        <v>10.6960356163474</v>
       </c>
       <c r="M18">
-        <v>20.78398813959149</v>
+        <v>8.73460963514481</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.184104080293998</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>20.2571254068874</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.26390592740046</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.46992007769057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.992229288266124</v>
+        <v>9.544533635067609</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.000638264643573</v>
+        <v>8.939537573420097</v>
       </c>
       <c r="E19">
-        <v>11.7547817965092</v>
+        <v>11.72045501616249</v>
       </c>
       <c r="F19">
-        <v>19.81487065710655</v>
+        <v>20.0555385106249</v>
       </c>
       <c r="G19">
-        <v>19.30166508900019</v>
+        <v>19.26828216611998</v>
       </c>
       <c r="H19">
-        <v>3.387493439393551</v>
+        <v>3.379727116670778</v>
       </c>
       <c r="I19">
-        <v>3.37753175518189</v>
+        <v>3.134528735000784</v>
       </c>
       <c r="J19">
-        <v>8.016845715063218</v>
+        <v>8.61872415225568</v>
       </c>
       <c r="K19">
-        <v>13.84020210506545</v>
+        <v>13.12267854031241</v>
       </c>
       <c r="L19">
-        <v>6.762982227378285</v>
+        <v>10.63026061758526</v>
       </c>
       <c r="M19">
-        <v>20.85578878209224</v>
+        <v>8.676880562175523</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.761847680164923</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>20.37396962763105</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.77494250966295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.97070985900127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.96625187244152</v>
+        <v>9.446389324670996</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.18043378001865</v>
+        <v>10.13869484480914</v>
       </c>
       <c r="E20">
-        <v>14.36369623196581</v>
+        <v>14.33583873356899</v>
       </c>
       <c r="F20">
-        <v>21.72640746150698</v>
+        <v>21.88664606281323</v>
       </c>
       <c r="G20">
-        <v>21.38095238137888</v>
+        <v>21.56749153169132</v>
       </c>
       <c r="H20">
-        <v>2.601950000370479</v>
+        <v>2.58687635016921</v>
       </c>
       <c r="I20">
-        <v>3.329689629954082</v>
+        <v>3.096055096931962</v>
       </c>
       <c r="J20">
-        <v>8.302047761736272</v>
+        <v>8.788567768672317</v>
       </c>
       <c r="K20">
-        <v>13.60011461198943</v>
+        <v>12.95851417542571</v>
       </c>
       <c r="L20">
-        <v>7.890842766368262</v>
+        <v>10.56554558724628</v>
       </c>
       <c r="M20">
-        <v>21.43022325424248</v>
+        <v>8.496021323205543</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.887295825818437</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>21.01141278080213</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.57265967924443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.71212644676628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.473762649870649</v>
+        <v>9.974412769874185</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.74701267612665</v>
+        <v>10.77746357905013</v>
       </c>
       <c r="E21">
-        <v>15.21132402981906</v>
+        <v>15.20694042778689</v>
       </c>
       <c r="F21">
-        <v>22.44131027401196</v>
+        <v>22.28104717375749</v>
       </c>
       <c r="G21">
-        <v>22.12915849874376</v>
+        <v>24.11213966651683</v>
       </c>
       <c r="H21">
-        <v>2.875242287533713</v>
+        <v>2.845104521831848</v>
       </c>
       <c r="I21">
-        <v>3.213405821409653</v>
+        <v>3.002472636901625</v>
       </c>
       <c r="J21">
-        <v>8.30477746960643</v>
+        <v>8.072879257057796</v>
       </c>
       <c r="K21">
-        <v>13.37432003564794</v>
+        <v>12.80787043188103</v>
       </c>
       <c r="L21">
-        <v>8.220040814551867</v>
+        <v>10.63842321659299</v>
       </c>
       <c r="M21">
-        <v>22.61584024336557</v>
+        <v>8.236099417654795</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.202571865663709</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>22.15167042912647</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.73849215038705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.6374429374378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.829889697937693</v>
+        <v>10.34685945730109</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.05278121394031</v>
+        <v>11.13346990192044</v>
       </c>
       <c r="E22">
-        <v>15.63121813146789</v>
+        <v>15.64397190804631</v>
       </c>
       <c r="F22">
-        <v>22.84833316355702</v>
+        <v>22.46070423453677</v>
       </c>
       <c r="G22">
-        <v>22.57516626617084</v>
+        <v>25.82412154774399</v>
       </c>
       <c r="H22">
-        <v>3.041997124395766</v>
+        <v>3.002387134860635</v>
       </c>
       <c r="I22">
-        <v>3.128719488893366</v>
+        <v>2.929860279238024</v>
       </c>
       <c r="J22">
-        <v>8.303474500531498</v>
+        <v>7.629065287598512</v>
       </c>
       <c r="K22">
-        <v>13.22449300087318</v>
+        <v>12.71402355941627</v>
       </c>
       <c r="L22">
-        <v>8.376675626479189</v>
+        <v>10.70299188088237</v>
       </c>
       <c r="M22">
-        <v>23.32102065733365</v>
+        <v>8.066524928004618</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.349959321296193</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>22.82464059493999</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.83538689841313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.55896109808533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.673856830263135</v>
+        <v>10.16973770946852</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.8857794353143</v>
+        <v>10.93241866257469</v>
       </c>
       <c r="E23">
-        <v>15.40625465880318</v>
+        <v>15.40716858042913</v>
       </c>
       <c r="F23">
-        <v>22.65108925825355</v>
+        <v>22.41688568806946</v>
       </c>
       <c r="G23">
-        <v>22.37227781842884</v>
+        <v>24.74425571561732</v>
       </c>
       <c r="H23">
-        <v>2.953260227555606</v>
+        <v>2.919652137249698</v>
       </c>
       <c r="I23">
-        <v>3.162738443369409</v>
+        <v>2.954864774068647</v>
       </c>
       <c r="J23">
-        <v>8.310494782121157</v>
+        <v>7.931191648627059</v>
       </c>
       <c r="K23">
-        <v>13.28826852176864</v>
+        <v>12.7462363768447</v>
       </c>
       <c r="L23">
-        <v>8.29386063867034</v>
+        <v>10.651961725714</v>
       </c>
       <c r="M23">
-        <v>22.9173660953984</v>
+        <v>8.145400200202623</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.273227400722835</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>22.44979240694594</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.799044241916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.64115195333923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.997445290257026</v>
+        <v>9.46497561761959</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.23973058033167</v>
+        <v>10.19903753296409</v>
       </c>
       <c r="E24">
-        <v>14.52912395398229</v>
+        <v>14.50187130850513</v>
       </c>
       <c r="F24">
-        <v>21.8785368706972</v>
+        <v>22.03463064896534</v>
       </c>
       <c r="G24">
-        <v>21.57037514809022</v>
+        <v>21.73318546969596</v>
       </c>
       <c r="H24">
-        <v>2.610061748365734</v>
+        <v>2.595101022485723</v>
       </c>
       <c r="I24">
-        <v>3.313116500034496</v>
+        <v>3.075633334998062</v>
       </c>
       <c r="J24">
-        <v>8.335153565189565</v>
+        <v>8.824358926349824</v>
       </c>
       <c r="K24">
-        <v>13.56922670564016</v>
+        <v>12.93667979491886</v>
       </c>
       <c r="L24">
-        <v>7.971841906975678</v>
+        <v>10.54741495952648</v>
       </c>
       <c r="M24">
-        <v>21.37737865777234</v>
+        <v>8.479705045283477</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.968327521800078</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>20.96925797989299</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.65460664431512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.79081826978388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.195618022346409</v>
+        <v>8.726131457253866</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.499056892473771</v>
+        <v>9.450336207057521</v>
       </c>
       <c r="E25">
-        <v>13.52365144054463</v>
+        <v>13.49792630301241</v>
       </c>
       <c r="F25">
-        <v>21.06308197552348</v>
+        <v>21.25647226213953</v>
       </c>
       <c r="G25">
-        <v>20.75979091194913</v>
+        <v>20.71020551978298</v>
       </c>
       <c r="H25">
-        <v>2.223652071718482</v>
+        <v>2.217166614245728</v>
       </c>
       <c r="I25">
-        <v>3.483873296729768</v>
+        <v>3.217192540980326</v>
       </c>
       <c r="J25">
-        <v>8.379743673504992</v>
+        <v>8.906148210850404</v>
       </c>
       <c r="K25">
-        <v>13.89868193071429</v>
+        <v>13.21215179533119</v>
       </c>
       <c r="L25">
-        <v>7.608854651524951</v>
+        <v>10.5447663144883</v>
       </c>
       <c r="M25">
-        <v>19.59067629775573</v>
+        <v>8.887265591304812</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.610066022221712</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19.1511836302765</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.53831390975968</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.69329093640161</v>
       </c>
     </row>
   </sheetData>
